--- a/orcamentosParaClientes/OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx
+++ b/orcamentosParaClientes/OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\orcamentosParaClientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8F77C-8B81-48EC-AA23-BB51EB106551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFF629F-84D2-44B3-9B8B-81BAE3CD1D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{878DE4AC-B5E0-479D-A2D5-A02618B4A3FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{546A15AB-FE96-41C3-AA15-10CF7EBAD637}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado" sheetId="2" r:id="rId1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="230">
   <si>
     <t>Orçamento</t>
   </si>
@@ -689,6 +691,9 @@
   </si>
   <si>
     <t>Cenário: Praça do Centro Histórico</t>
+  </si>
+  <si>
+    <t>Cenário: Teste</t>
   </si>
   <si>
     <t>Total</t>
@@ -732,7 +737,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -1230,10 +1235,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB859320-3587-4324-BE67-B03732E63DF4}">
-  <dimension ref="A3:J173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F9CFF72-3669-46C4-ADEE-9FFFA285544A}">
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1245,9 +1253,19 @@
     <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>4.9504950495049505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.9702970297029703</v>
+      </c>
+    </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1390,10 +1408,13 @@
       <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="16">
+        <f>G16*(1-(H16/100))+A1+A2</f>
+        <v>37402.420792079203</v>
+      </c>
       <c r="J16" s="16">
         <f>I16*F16</f>
-        <v>0</v>
+        <v>37402.420792079203</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1421,10 +1442,13 @@
       <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="16">
+        <f>G17*(1-(H17/100))+A1+A2</f>
+        <v>6243.6151920792081</v>
+      </c>
       <c r="J17" s="16">
         <f>I17*F17</f>
-        <v>0</v>
+        <v>6243.6151920792081</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1452,10 +1476,13 @@
       <c r="H18" s="10">
         <v>0</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="16">
+        <f>G18*(1-(H18/100))+A1+A2</f>
+        <v>5201.870092079208</v>
+      </c>
       <c r="J18" s="16">
         <f>I18*F18</f>
-        <v>0</v>
+        <v>5201.870092079208</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1483,10 +1510,13 @@
       <c r="H19" s="10">
         <v>0</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="16">
+        <f>G19*(1-(H19/100))+A1+A2</f>
+        <v>6634.9650920792074</v>
+      </c>
       <c r="J19" s="16">
         <f>I19*F19</f>
-        <v>0</v>
+        <v>6634.9650920792074</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1514,10 +1544,13 @@
       <c r="H20" s="10">
         <v>0</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="16">
+        <f>G20*(1-(H20/100))+A1+A2</f>
+        <v>548.38279207920789</v>
+      </c>
       <c r="J20" s="16">
         <f>I20*F20</f>
-        <v>0</v>
+        <v>548.38279207920789</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1545,10 +1578,13 @@
       <c r="H21" s="10">
         <v>0</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="16">
+        <f>G21*(1-(H21/100))+A1+A2</f>
+        <v>455.80459207920791</v>
+      </c>
       <c r="J21" s="16">
         <f>I21*F21</f>
-        <v>0</v>
+        <v>455.80459207920791</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1576,10 +1612,13 @@
       <c r="H22" s="10">
         <v>0</v>
       </c>
-      <c r="I22" s="16"/>
+      <c r="I22" s="16">
+        <f>G22*(1-(H22/100))+A1+A2</f>
+        <v>819.22219207920784</v>
+      </c>
       <c r="J22" s="16">
         <f>I22*F22</f>
-        <v>0</v>
+        <v>819.22219207920784</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1607,10 +1646,13 @@
       <c r="H23" s="10">
         <v>0</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="16">
+        <f>G23*(1-(H23/100))+A1+A2</f>
+        <v>3851.913692079208</v>
+      </c>
       <c r="J23" s="16">
         <f>I23*F23</f>
-        <v>0</v>
+        <v>3851.913692079208</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1638,10 +1680,13 @@
       <c r="H24" s="10">
         <v>0</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="16">
+        <f>G24*(1-(H24/100))+A1+A2</f>
+        <v>606.1766920792079</v>
+      </c>
       <c r="J24" s="16">
         <f>I24*F24</f>
-        <v>0</v>
+        <v>606.1766920792079</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1669,10 +1714,13 @@
       <c r="H25" s="10">
         <v>0</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="16">
+        <f>G25*(1-(H25/100))+A1+A2</f>
+        <v>245.86349207920793</v>
+      </c>
       <c r="J25" s="16">
         <f>I25*F25</f>
-        <v>0</v>
+        <v>245.86349207920793</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1696,10 +1744,13 @@
       <c r="H26" s="10">
         <v>0</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="16">
+        <f>G26*(1-(H26/100))+A1+A2</f>
+        <v>959.4583920792079</v>
+      </c>
       <c r="J26" s="16">
         <f>I26*F26</f>
-        <v>0</v>
+        <v>959.4583920792079</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1723,10 +1774,13 @@
       <c r="H27" s="10">
         <v>0</v>
       </c>
-      <c r="I27" s="16"/>
+      <c r="I27" s="16">
+        <f>G27*(1-(H27/100))+A1+A2</f>
+        <v>959.4583920792079</v>
+      </c>
       <c r="J27" s="16">
         <f>I27*F27</f>
-        <v>0</v>
+        <v>959.4583920792079</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1754,10 +1808,13 @@
       <c r="H28" s="10">
         <v>0</v>
       </c>
-      <c r="I28" s="16"/>
+      <c r="I28" s="16">
+        <f>G28*(1-(H28/100))+A1+A2</f>
+        <v>415.85299207920792</v>
+      </c>
       <c r="J28" s="16">
         <f>I28*F28</f>
-        <v>0</v>
+        <v>415.85299207920792</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1785,10 +1842,13 @@
       <c r="H29" s="10">
         <v>0</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="16">
+        <f>G29*(1-(H29/100))+A1+A2</f>
+        <v>415.85299207920792</v>
+      </c>
       <c r="J29" s="16">
         <f>I29*F29</f>
-        <v>0</v>
+        <v>415.85299207920792</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1816,10 +1876,13 @@
       <c r="H30" s="10">
         <v>0</v>
       </c>
-      <c r="I30" s="16"/>
+      <c r="I30" s="16">
+        <f>G30*(1-(H30/100))+A1+A2</f>
+        <v>388.6777920792079</v>
+      </c>
       <c r="J30" s="16">
         <f>I30*F30</f>
-        <v>0</v>
+        <v>388.6777920792079</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -1847,10 +1910,13 @@
       <c r="H31" s="10">
         <v>0</v>
       </c>
-      <c r="I31" s="16"/>
+      <c r="I31" s="16">
+        <f>G31*(1-(H31/100))+A1+A2</f>
+        <v>4050.1407920792076</v>
+      </c>
       <c r="J31" s="16">
         <f>I31*F31</f>
-        <v>0</v>
+        <v>4050.1407920792076</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1872,10 +1938,13 @@
       <c r="H32" s="10">
         <v>0</v>
       </c>
-      <c r="I32" s="16"/>
+      <c r="I32" s="16">
+        <f>G32*(1-(H32/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J32" s="16">
         <f>I32*F32</f>
-        <v>0</v>
+        <v>122.32079207920793</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -1897,10 +1966,13 @@
       <c r="H33" s="10">
         <v>0</v>
       </c>
-      <c r="I33" s="16"/>
+      <c r="I33" s="16">
+        <f>G33*(1-(H33/100))+A1+A2</f>
+        <v>236.72079207920794</v>
+      </c>
       <c r="J33" s="16">
         <f>I33*F33</f>
-        <v>0</v>
+        <v>946.88316831683176</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1909,7 +1981,7 @@
       </c>
       <c r="J34" s="19">
         <f>SUM(J15:J33)</f>
-        <v>0</v>
+        <v>70268.879933663353</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1988,10 +2060,13 @@
       <c r="H38" s="10">
         <v>0</v>
       </c>
-      <c r="I38" s="16"/>
+      <c r="I38" s="16">
+        <f>G38*(1-(H38/100))+A1+A2</f>
+        <v>35147.668292079201</v>
+      </c>
       <c r="J38" s="16">
         <f>I38*F38</f>
-        <v>0</v>
+        <v>35147.668292079201</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2019,10 +2094,13 @@
       <c r="H39" s="10">
         <v>0</v>
       </c>
-      <c r="I39" s="16"/>
+      <c r="I39" s="16">
+        <f>G39*(1-(H39/100))+A1+A2</f>
+        <v>6632.6300920792082</v>
+      </c>
       <c r="J39" s="16">
         <f>I39*F39</f>
-        <v>0</v>
+        <v>6632.6300920792082</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2050,10 +2128,13 @@
       <c r="H40" s="10">
         <v>0</v>
       </c>
-      <c r="I40" s="16"/>
+      <c r="I40" s="16">
+        <f>G40*(1-(H40/100))+A1+A2</f>
+        <v>2719.1079920792076</v>
+      </c>
       <c r="J40" s="16">
         <f>I40*F40</f>
-        <v>0</v>
+        <v>5438.2159841584153</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2081,10 +2162,13 @@
       <c r="H41" s="10">
         <v>0</v>
       </c>
-      <c r="I41" s="16"/>
+      <c r="I41" s="16">
+        <f>G41*(1-(H41/100))+A1+A2</f>
+        <v>4050.1407920792076</v>
+      </c>
       <c r="J41" s="16">
         <f>I41*F41</f>
-        <v>0</v>
+        <v>4050.1407920792076</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2106,10 +2190,13 @@
       <c r="H42" s="10">
         <v>0</v>
       </c>
-      <c r="I42" s="16"/>
+      <c r="I42" s="16">
+        <f>G42*(1-(H42/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J42" s="16">
         <f>I42*F42</f>
-        <v>0</v>
+        <v>122.32079207920793</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2133,10 +2220,13 @@
       <c r="H43" s="10">
         <v>0</v>
       </c>
-      <c r="I43" s="16"/>
+      <c r="I43" s="16">
+        <f>G43*(1-(H43/100))+A1+A2</f>
+        <v>959.4583920792079</v>
+      </c>
       <c r="J43" s="16">
         <f>I43*F43</f>
-        <v>0</v>
+        <v>959.4583920792079</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2164,10 +2254,13 @@
       <c r="H44" s="10">
         <v>0</v>
       </c>
-      <c r="I44" s="16"/>
+      <c r="I44" s="16">
+        <f>G44*(1-(H44/100))+A1+A2</f>
+        <v>415.85299207920792</v>
+      </c>
       <c r="J44" s="16">
         <f>I44*F44</f>
-        <v>0</v>
+        <v>415.85299207920792</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2195,10 +2288,13 @@
       <c r="H45" s="10">
         <v>0</v>
       </c>
-      <c r="I45" s="16"/>
+      <c r="I45" s="16">
+        <f>G45*(1-(H45/100))+A1+A2</f>
+        <v>388.6777920792079</v>
+      </c>
       <c r="J45" s="16">
         <f>I45*F45</f>
-        <v>0</v>
+        <v>388.6777920792079</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2226,10 +2322,13 @@
       <c r="H46" s="10">
         <v>0</v>
       </c>
-      <c r="I46" s="16"/>
+      <c r="I46" s="16">
+        <f>G46*(1-(H46/100))+A1+A2</f>
+        <v>606.1766920792079</v>
+      </c>
       <c r="J46" s="16">
         <f>I46*F46</f>
-        <v>0</v>
+        <v>606.1766920792079</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2251,10 +2350,13 @@
       <c r="H47" s="10">
         <v>0</v>
       </c>
-      <c r="I47" s="16"/>
+      <c r="I47" s="16">
+        <f>G47*(1-(H47/100))+A1+A2</f>
+        <v>236.72079207920794</v>
+      </c>
       <c r="J47" s="16">
         <f>I47*F47</f>
-        <v>0</v>
+        <v>473.44158415841588</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2263,7 +2365,7 @@
       </c>
       <c r="J48" s="19">
         <f>SUM(J37:J47)</f>
-        <v>0</v>
+        <v>54234.58340495047</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2334,10 +2436,13 @@
       <c r="H52" s="10">
         <v>0</v>
       </c>
-      <c r="I52" s="16"/>
+      <c r="I52" s="16">
+        <f>G52*(1-(H52/100))+A1+A2</f>
+        <v>7.9207920792079207</v>
+      </c>
       <c r="J52" s="16">
         <f>I52*F52</f>
-        <v>0</v>
+        <v>1425.7425742574258</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2359,10 +2464,13 @@
       <c r="H53" s="10">
         <v>0</v>
       </c>
-      <c r="I53" s="16"/>
+      <c r="I53" s="16">
+        <f>G53*(1-(H53/100))+A1+A2</f>
+        <v>351.12079207920789</v>
+      </c>
       <c r="J53" s="16">
         <f>I53*F53</f>
-        <v>0</v>
+        <v>5266.8118811881186</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -2390,10 +2498,13 @@
       <c r="H54" s="10">
         <v>0</v>
       </c>
-      <c r="I54" s="16"/>
+      <c r="I54" s="16">
+        <f>G54*(1-(H54/100))+A1+A2</f>
+        <v>63.820792079207919</v>
+      </c>
       <c r="J54" s="16">
         <f>I54*F54</f>
-        <v>0</v>
+        <v>7977.5990099009896</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2402,7 +2513,7 @@
       </c>
       <c r="J55" s="19">
         <f>SUM(J51:J54)</f>
-        <v>0</v>
+        <v>14670.153465346535</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2481,10 +2592,13 @@
       <c r="H59" s="10">
         <v>0</v>
       </c>
-      <c r="I59" s="16"/>
+      <c r="I59" s="16">
+        <f>G59*(1-(H59/100))+A1+A2</f>
+        <v>21177.920792079211</v>
+      </c>
       <c r="J59" s="16">
         <f>I59*F59</f>
-        <v>0</v>
+        <v>21177.920792079211</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2512,10 +2626,13 @@
       <c r="H60" s="10">
         <v>0</v>
       </c>
-      <c r="I60" s="16"/>
+      <c r="I60" s="16">
+        <f>G60*(1-(H60/100))+A1+A2</f>
+        <v>66.420792079207928</v>
+      </c>
       <c r="J60" s="16">
         <f>I60*F60</f>
-        <v>0</v>
+        <v>1062.7326732673268</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2543,10 +2660,13 @@
       <c r="H61" s="10">
         <v>0</v>
       </c>
-      <c r="I61" s="16"/>
+      <c r="I61" s="16">
+        <f>G61*(1-(H61/100))+A1+A2</f>
+        <v>25.800992079207919</v>
+      </c>
       <c r="J61" s="16">
         <f>I61*F61</f>
-        <v>0</v>
+        <v>2580.0992079207917</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2574,10 +2694,13 @@
       <c r="H62" s="10">
         <v>0</v>
       </c>
-      <c r="I62" s="16"/>
+      <c r="I62" s="16">
+        <f>G62*(1-(H62/100))+A1+A2</f>
+        <v>4050.1407920792076</v>
+      </c>
       <c r="J62" s="16">
         <f>I62*F62</f>
-        <v>0</v>
+        <v>4050.1407920792076</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2599,10 +2722,13 @@
       <c r="H63" s="10">
         <v>0</v>
       </c>
-      <c r="I63" s="16"/>
+      <c r="I63" s="16">
+        <f>G63*(1-(H63/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J63" s="16">
         <f>I63*F63</f>
-        <v>0</v>
+        <v>122.32079207920793</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="144" x14ac:dyDescent="0.3">
@@ -2630,10 +2756,13 @@
       <c r="H64" s="10">
         <v>0</v>
       </c>
-      <c r="I64" s="16"/>
+      <c r="I64" s="16">
+        <f>G64*(1-(H64/100))+A1+A2</f>
+        <v>3657.3067920792078</v>
+      </c>
       <c r="J64" s="16">
         <f>I64*F64</f>
-        <v>0</v>
+        <v>3657.3067920792078</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2655,10 +2784,13 @@
       <c r="H65" s="10">
         <v>0</v>
       </c>
-      <c r="I65" s="16"/>
+      <c r="I65" s="16">
+        <f>G65*(1-(H65/100))+A1+A2</f>
+        <v>616.9207920792079</v>
+      </c>
       <c r="J65" s="16">
         <f>I65*F65</f>
-        <v>0</v>
+        <v>1233.8415841584158</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -2680,10 +2812,13 @@
       <c r="H66" s="10">
         <v>0</v>
       </c>
-      <c r="I66" s="16"/>
+      <c r="I66" s="16">
+        <f>G66*(1-(H66/100))+A1+A2</f>
+        <v>5509.220792079208</v>
+      </c>
       <c r="J66" s="16">
         <f>I66*F66</f>
-        <v>0</v>
+        <v>5509.220792079208</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2711,10 +2846,13 @@
       <c r="H67" s="10">
         <v>0</v>
       </c>
-      <c r="I67" s="16"/>
+      <c r="I67" s="16">
+        <f>G67*(1-(H67/100))+A1+A2</f>
+        <v>4563.8698920792076</v>
+      </c>
       <c r="J67" s="16">
         <f>I67*F67</f>
-        <v>0</v>
+        <v>4563.8698920792076</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -2742,10 +2880,13 @@
       <c r="H68" s="10">
         <v>0</v>
       </c>
-      <c r="I68" s="16"/>
+      <c r="I68" s="16">
+        <f>G68*(1-(H68/100))+A1+A2</f>
+        <v>3737.6831920792079</v>
+      </c>
       <c r="J68" s="16">
         <f>I68*F68</f>
-        <v>0</v>
+        <v>3737.6831920792079</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2754,7 +2895,7 @@
       </c>
       <c r="J69" s="19">
         <f>SUM(J58:J68)</f>
-        <v>0</v>
+        <v>47695.136509900993</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2831,10 +2972,13 @@
       <c r="H73" s="10">
         <v>0</v>
       </c>
-      <c r="I73" s="16"/>
+      <c r="I73" s="16">
+        <f>G73*(1-(H73/100))+A1+A2</f>
+        <v>7.9207920792079207</v>
+      </c>
       <c r="J73" s="16">
         <f>I73*F73</f>
-        <v>0</v>
+        <v>7.9207920792079207</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -2860,10 +3004,13 @@
       <c r="H74" s="10">
         <v>0</v>
       </c>
-      <c r="I74" s="16"/>
+      <c r="I74" s="16">
+        <f>G74*(1-(H74/100))+A1+A2</f>
+        <v>7.9207920792079207</v>
+      </c>
       <c r="J74" s="16">
         <f>I74*F74</f>
-        <v>0</v>
+        <v>15.841584158415841</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -2891,10 +3038,13 @@
       <c r="H75" s="10">
         <v>0</v>
       </c>
-      <c r="I75" s="16"/>
+      <c r="I75" s="16">
+        <f>G75*(1-(H75/100))+A1+A2</f>
+        <v>66.420792079207928</v>
+      </c>
       <c r="J75" s="16">
         <f>I75*F75</f>
-        <v>0</v>
+        <v>398.52475247524757</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -2922,10 +3072,13 @@
       <c r="H76" s="10">
         <v>0</v>
       </c>
-      <c r="I76" s="16"/>
+      <c r="I76" s="16">
+        <f>G76*(1-(H76/100))+A1+A2</f>
+        <v>25.800992079207919</v>
+      </c>
       <c r="J76" s="16">
         <f>I76*F76</f>
-        <v>0</v>
+        <v>1032.0396831683167</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -2934,7 +3087,7 @@
       </c>
       <c r="J77" s="19">
         <f>SUM(J72:J76)</f>
-        <v>0</v>
+        <v>1454.326811881188</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3013,10 +3166,13 @@
       <c r="H81" s="10">
         <v>0</v>
       </c>
-      <c r="I81" s="16"/>
+      <c r="I81" s="16">
+        <f>G81*(1-(H81/100))+A1+A2</f>
+        <v>9769.9207920792069</v>
+      </c>
       <c r="J81" s="16">
         <f>I81*F81</f>
-        <v>0</v>
+        <v>9769.9207920792069</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3044,10 +3200,13 @@
       <c r="H82" s="10">
         <v>0</v>
       </c>
-      <c r="I82" s="16"/>
+      <c r="I82" s="16">
+        <f>G82*(1-(H82/100))+A1+A2</f>
+        <v>4297.9207920792078</v>
+      </c>
       <c r="J82" s="16">
         <f>I82*F82</f>
-        <v>0</v>
+        <v>4297.9207920792078</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3075,10 +3234,13 @@
       <c r="H83" s="10">
         <v>0</v>
       </c>
-      <c r="I83" s="16"/>
+      <c r="I83" s="16">
+        <f>G83*(1-(H83/100))+A1+A2</f>
+        <v>6632.6300920792082</v>
+      </c>
       <c r="J83" s="16">
         <f>I83*F83</f>
-        <v>0</v>
+        <v>6632.6300920792082</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3106,10 +3268,13 @@
       <c r="H84" s="10">
         <v>0</v>
       </c>
-      <c r="I84" s="16"/>
+      <c r="I84" s="16">
+        <f>G84*(1-(H84/100))+A1+A2</f>
+        <v>3789.1702920792077</v>
+      </c>
       <c r="J84" s="16">
         <f>I84*F84</f>
-        <v>0</v>
+        <v>3789.1702920792077</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -3137,10 +3302,13 @@
       <c r="H85" s="10">
         <v>0</v>
       </c>
-      <c r="I85" s="16"/>
+      <c r="I85" s="16">
+        <f>G85*(1-(H85/100))+A1+A2</f>
+        <v>3668.8627920792078</v>
+      </c>
       <c r="J85" s="16">
         <f>I85*F85</f>
-        <v>0</v>
+        <v>3668.8627920792078</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3168,10 +3336,13 @@
       <c r="H86" s="10">
         <v>0</v>
       </c>
-      <c r="I86" s="16"/>
+      <c r="I86" s="16">
+        <f>G86*(1-(H86/100))+A1+A2</f>
+        <v>1861.2085920792081</v>
+      </c>
       <c r="J86" s="16">
         <f>I86*F86</f>
-        <v>0</v>
+        <v>1861.2085920792081</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3199,10 +3370,13 @@
       <c r="H87" s="10">
         <v>0</v>
       </c>
-      <c r="I87" s="16"/>
+      <c r="I87" s="16">
+        <f>G87*(1-(H87/100))+A1+A2</f>
+        <v>1472.3395920792079</v>
+      </c>
       <c r="J87" s="16">
         <f>I87*F87</f>
-        <v>0</v>
+        <v>1472.3395920792079</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3230,10 +3404,13 @@
       <c r="H88" s="10">
         <v>0</v>
       </c>
-      <c r="I88" s="16"/>
+      <c r="I88" s="16">
+        <f>G88*(1-(H88/100))+A1+A2</f>
+        <v>3658.6416920792076</v>
+      </c>
       <c r="J88" s="16">
         <f>I88*F88</f>
-        <v>0</v>
+        <v>3658.6416920792076</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -3261,10 +3438,13 @@
       <c r="H89" s="10">
         <v>0</v>
       </c>
-      <c r="I89" s="16"/>
+      <c r="I89" s="16">
+        <f>G89*(1-(H89/100))+A1+A2</f>
+        <v>4050.1407920792076</v>
+      </c>
       <c r="J89" s="16">
         <f>I89*F89</f>
-        <v>0</v>
+        <v>4050.1407920792076</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3286,10 +3466,13 @@
       <c r="H90" s="10">
         <v>0</v>
       </c>
-      <c r="I90" s="16"/>
+      <c r="I90" s="16">
+        <f>G90*(1-(H90/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J90" s="16">
         <f>I90*F90</f>
-        <v>0</v>
+        <v>122.32079207920793</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -3317,10 +3500,13 @@
       <c r="H91" s="10">
         <v>0</v>
       </c>
-      <c r="I91" s="16"/>
+      <c r="I91" s="16">
+        <f>G91*(1-(H91/100))+A1+A2</f>
+        <v>2442.2981920792076</v>
+      </c>
       <c r="J91" s="16">
         <f>I91*F91</f>
-        <v>0</v>
+        <v>2442.2981920792076</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3348,10 +3534,13 @@
       <c r="H92" s="10">
         <v>0</v>
       </c>
-      <c r="I92" s="16"/>
+      <c r="I92" s="16">
+        <f>G92*(1-(H92/100))+A1+A2</f>
+        <v>66.420792079207928</v>
+      </c>
       <c r="J92" s="16">
         <f>I92*F92</f>
-        <v>0</v>
+        <v>265.68316831683171</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3379,10 +3568,13 @@
       <c r="H93" s="10">
         <v>0</v>
       </c>
-      <c r="I93" s="16"/>
+      <c r="I93" s="16">
+        <f>G93*(1-(H93/100))+A1+A2</f>
+        <v>25.800992079207919</v>
+      </c>
       <c r="J93" s="16">
         <f>I93*F93</f>
-        <v>0</v>
+        <v>258.00992079207919</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3410,10 +3602,13 @@
       <c r="H94" s="10">
         <v>0</v>
       </c>
-      <c r="I94" s="16"/>
+      <c r="I94" s="16">
+        <f>G94*(1-(H94/100))+A1+A2</f>
+        <v>548.34979207920787</v>
+      </c>
       <c r="J94" s="16">
         <f>I94*F94</f>
-        <v>0</v>
+        <v>548.34979207920787</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3441,10 +3636,13 @@
       <c r="H95" s="10">
         <v>0</v>
       </c>
-      <c r="I95" s="16"/>
+      <c r="I95" s="16">
+        <f>G95*(1-(H95/100))+A1+A2</f>
+        <v>455.8197920792079</v>
+      </c>
       <c r="J95" s="16">
         <f>I95*F95</f>
-        <v>0</v>
+        <v>455.8197920792079</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3472,10 +3670,13 @@
       <c r="H96" s="10">
         <v>0</v>
       </c>
-      <c r="I96" s="16"/>
+      <c r="I96" s="16">
+        <f>G96*(1-(H96/100))+A1+A2</f>
+        <v>859.79229207920787</v>
+      </c>
       <c r="J96" s="16">
         <f>I96*F96</f>
-        <v>0</v>
+        <v>859.79229207920787</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3503,10 +3704,13 @@
       <c r="H97" s="10">
         <v>0</v>
       </c>
-      <c r="I97" s="16"/>
+      <c r="I97" s="16">
+        <f>G97*(1-(H97/100))+A1+A2</f>
+        <v>606.1766920792079</v>
+      </c>
       <c r="J97" s="16">
         <f>I97*F97</f>
-        <v>0</v>
+        <v>1212.3533841584158</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3534,10 +3738,13 @@
       <c r="H98" s="10">
         <v>0</v>
       </c>
-      <c r="I98" s="16"/>
+      <c r="I98" s="16">
+        <f>G98*(1-(H98/100))+A1+A2</f>
+        <v>245.86349207920793</v>
+      </c>
       <c r="J98" s="16">
         <f>I98*F98</f>
-        <v>0</v>
+        <v>491.72698415841586</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3561,10 +3768,13 @@
       <c r="H99" s="10">
         <v>0</v>
       </c>
-      <c r="I99" s="16"/>
+      <c r="I99" s="16">
+        <f>G99*(1-(H99/100))+A1+A2</f>
+        <v>2826.8407920792079</v>
+      </c>
       <c r="J99" s="16">
         <f>I99*F99</f>
-        <v>0</v>
+        <v>2826.8407920792079</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3588,10 +3798,13 @@
       <c r="H100" s="10">
         <v>0</v>
       </c>
-      <c r="I100" s="16"/>
+      <c r="I100" s="16">
+        <f>G100*(1-(H100/100))+A1+A2</f>
+        <v>959.4583920792079</v>
+      </c>
       <c r="J100" s="16">
         <f>I100*F100</f>
-        <v>0</v>
+        <v>959.4583920792079</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3615,10 +3828,13 @@
       <c r="H101" s="10">
         <v>0</v>
       </c>
-      <c r="I101" s="16"/>
+      <c r="I101" s="16">
+        <f>G101*(1-(H101/100))+A1+A2</f>
+        <v>959.4583920792079</v>
+      </c>
       <c r="J101" s="16">
         <f>I101*F101</f>
-        <v>0</v>
+        <v>959.4583920792079</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3642,10 +3858,13 @@
       <c r="H102" s="10">
         <v>0</v>
       </c>
-      <c r="I102" s="16"/>
+      <c r="I102" s="16">
+        <f>G102*(1-(H102/100))+A1+A2</f>
+        <v>959.4583920792079</v>
+      </c>
       <c r="J102" s="16">
         <f>I102*F102</f>
-        <v>0</v>
+        <v>959.4583920792079</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3669,10 +3888,13 @@
       <c r="H103" s="10">
         <v>0</v>
       </c>
-      <c r="I103" s="16"/>
+      <c r="I103" s="16">
+        <f>G103*(1-(H103/100))+A1+A2</f>
+        <v>959.4583920792079</v>
+      </c>
       <c r="J103" s="16">
         <f>I103*F103</f>
-        <v>0</v>
+        <v>959.4583920792079</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3700,10 +3922,13 @@
       <c r="H104" s="10">
         <v>0</v>
       </c>
-      <c r="I104" s="16"/>
+      <c r="I104" s="16">
+        <f>G104*(1-(H104/100))+A1+A2</f>
+        <v>415.85299207920792</v>
+      </c>
       <c r="J104" s="16">
         <f>I104*F104</f>
-        <v>0</v>
+        <v>415.85299207920792</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3731,10 +3956,13 @@
       <c r="H105" s="10">
         <v>0</v>
       </c>
-      <c r="I105" s="16"/>
+      <c r="I105" s="16">
+        <f>G105*(1-(H105/100))+A1+A2</f>
+        <v>415.85299207920792</v>
+      </c>
       <c r="J105" s="16">
         <f>I105*F105</f>
-        <v>0</v>
+        <v>415.85299207920792</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3762,10 +3990,13 @@
       <c r="H106" s="10">
         <v>0</v>
       </c>
-      <c r="I106" s="16"/>
+      <c r="I106" s="16">
+        <f>G106*(1-(H106/100))+A1+A2</f>
+        <v>388.6777920792079</v>
+      </c>
       <c r="J106" s="16">
         <f>I106*F106</f>
-        <v>0</v>
+        <v>388.6777920792079</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3793,10 +4024,13 @@
       <c r="H107" s="10">
         <v>0</v>
       </c>
-      <c r="I107" s="16"/>
+      <c r="I107" s="16">
+        <f>G107*(1-(H107/100))+A1+A2</f>
+        <v>388.6777920792079</v>
+      </c>
       <c r="J107" s="16">
         <f>I107*F107</f>
-        <v>0</v>
+        <v>388.6777920792079</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -3818,10 +4052,13 @@
       <c r="H108" s="10">
         <v>0</v>
       </c>
-      <c r="I108" s="16"/>
+      <c r="I108" s="16">
+        <f>G108*(1-(H108/100))+A1+A2</f>
+        <v>236.72079207920794</v>
+      </c>
       <c r="J108" s="16">
         <f>I108*F108</f>
-        <v>0</v>
+        <v>1183.6039603960396</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -3830,7 +4067,7 @@
       </c>
       <c r="J109" s="19">
         <f>SUM(J80:J108)</f>
-        <v>0</v>
+        <v>55314.529635643543</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -3901,10 +4138,13 @@
       <c r="H113" s="10">
         <v>0</v>
       </c>
-      <c r="I113" s="16"/>
+      <c r="I113" s="16">
+        <f>G113*(1-(H113/100))+A1+A2</f>
+        <v>7.9207920792079207</v>
+      </c>
       <c r="J113" s="16">
         <f>I113*F113</f>
-        <v>0</v>
+        <v>158.41584158415841</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -3932,10 +4172,13 @@
       <c r="H114" s="10">
         <v>0</v>
       </c>
-      <c r="I114" s="16"/>
+      <c r="I114" s="16">
+        <f>G114*(1-(H114/100))+A1+A2</f>
+        <v>63.820792079207919</v>
+      </c>
       <c r="J114" s="16">
         <f>I114*F114</f>
-        <v>0</v>
+        <v>12764.158415841584</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -3944,7 +4187,7 @@
       </c>
       <c r="J115" s="19">
         <f>SUM(J112:J114)</f>
-        <v>0</v>
+        <v>12922.574257425742</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -4023,10 +4266,13 @@
       <c r="H119" s="10">
         <v>0</v>
       </c>
-      <c r="I119" s="16"/>
+      <c r="I119" s="16">
+        <f>G119*(1-(H119/100))+A1+A2</f>
+        <v>2749.2275920792076</v>
+      </c>
       <c r="J119" s="16">
         <f>I119*F119</f>
-        <v>0</v>
+        <v>2749.2275920792076</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4048,10 +4294,13 @@
       <c r="H120" s="10">
         <v>0</v>
       </c>
-      <c r="I120" s="16"/>
+      <c r="I120" s="16">
+        <f>G120*(1-(H120/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J120" s="16">
         <f>I120*F120</f>
-        <v>0</v>
+        <v>122.32079207920793</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4079,10 +4328,13 @@
       <c r="H121" s="10">
         <v>0</v>
       </c>
-      <c r="I121" s="16"/>
+      <c r="I121" s="16">
+        <f>G121*(1-(H121/100))+A1+A2</f>
+        <v>564.34069207920788</v>
+      </c>
       <c r="J121" s="16">
         <f>I121*F121</f>
-        <v>0</v>
+        <v>1128.6813841584158</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4104,10 +4356,13 @@
       <c r="H122" s="10">
         <v>0</v>
       </c>
-      <c r="I122" s="16"/>
+      <c r="I122" s="16">
+        <f>G122*(1-(H122/100))+A1+A2</f>
+        <v>527.9207920792079</v>
+      </c>
       <c r="J122" s="16">
         <f>I122*F122</f>
-        <v>0</v>
+        <v>2111.6831683168316</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
@@ -4116,7 +4371,7 @@
       </c>
       <c r="J123" s="19">
         <f>SUM(J118:J122)</f>
-        <v>0</v>
+        <v>6111.9129366336629</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4195,10 +4450,13 @@
       <c r="H127" s="10">
         <v>0</v>
       </c>
-      <c r="I127" s="16"/>
+      <c r="I127" s="16">
+        <f>G127*(1-(H127/100))+A1+A2</f>
+        <v>564.34069207920788</v>
+      </c>
       <c r="J127" s="16">
         <f>I127*F127</f>
-        <v>0</v>
+        <v>3950.3848445544554</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4226,10 +4484,13 @@
       <c r="H128" s="10">
         <v>0</v>
       </c>
-      <c r="I128" s="16"/>
+      <c r="I128" s="16">
+        <f>G128*(1-(H128/100))+A1+A2</f>
+        <v>79.420792079207928</v>
+      </c>
       <c r="J128" s="16">
         <f>I128*F128</f>
-        <v>0</v>
+        <v>794.20792079207922</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4251,10 +4512,13 @@
       <c r="H129" s="10">
         <v>0</v>
       </c>
-      <c r="I129" s="16"/>
+      <c r="I129" s="16">
+        <f>G129*(1-(H129/100))+A1+A2</f>
+        <v>332.9207920792079</v>
+      </c>
       <c r="J129" s="16">
         <f>I129*F129</f>
-        <v>0</v>
+        <v>998.7623762376237</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4282,10 +4546,13 @@
       <c r="H130" s="10">
         <v>0</v>
       </c>
-      <c r="I130" s="16"/>
+      <c r="I130" s="16">
+        <f>G130*(1-(H130/100))+A1+A2</f>
+        <v>7.9207920792079207</v>
+      </c>
       <c r="J130" s="16">
         <f>I130*F130</f>
-        <v>0</v>
+        <v>1108.9108910891089</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4313,10 +4580,13 @@
       <c r="H131" s="10">
         <v>0</v>
       </c>
-      <c r="I131" s="16"/>
+      <c r="I131" s="16">
+        <f>G131*(1-(H131/100))+A1+A2</f>
+        <v>2282.9207920792078</v>
+      </c>
       <c r="J131" s="16">
         <f>I131*F131</f>
-        <v>0</v>
+        <v>6848.7623762376234</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4344,10 +4614,13 @@
       <c r="H132" s="10">
         <v>0</v>
       </c>
-      <c r="I132" s="16"/>
+      <c r="I132" s="16">
+        <f>G132*(1-(H132/100))+A1+A2</f>
+        <v>2919.9207920792078</v>
+      </c>
       <c r="J132" s="16">
         <f>I132*F132</f>
-        <v>0</v>
+        <v>5839.8415841584156</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4369,10 +4642,13 @@
       <c r="H133" s="10">
         <v>0</v>
       </c>
-      <c r="I133" s="16"/>
+      <c r="I133" s="16">
+        <f>G133*(1-(H133/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J133" s="16">
         <f>I133*F133</f>
-        <v>0</v>
+        <v>611.60396039603961</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -4381,7 +4657,7 @@
       </c>
       <c r="J134" s="19">
         <f>SUM(J126:J133)</f>
-        <v>0</v>
+        <v>20152.473953465342</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
@@ -4460,10 +4736,13 @@
       <c r="H138" s="10">
         <v>0</v>
       </c>
-      <c r="I138" s="16"/>
+      <c r="I138" s="16">
+        <f>G138*(1-(H138/100))+A1+A2</f>
+        <v>7690.0709920792078</v>
+      </c>
       <c r="J138" s="16">
         <f>I138*F138</f>
-        <v>0</v>
+        <v>7690.0709920792078</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4491,10 +4770,13 @@
       <c r="H139" s="10">
         <v>0</v>
       </c>
-      <c r="I139" s="16"/>
+      <c r="I139" s="16">
+        <f>G139*(1-(H139/100))+A1+A2</f>
+        <v>4267.7750920792078</v>
+      </c>
       <c r="J139" s="16">
         <f>I139*F139</f>
-        <v>0</v>
+        <v>4267.7750920792078</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -4522,10 +4804,13 @@
       <c r="H140" s="10">
         <v>0</v>
       </c>
-      <c r="I140" s="16"/>
+      <c r="I140" s="16">
+        <f>G140*(1-(H140/100))+A1+A2</f>
+        <v>5270.5807920792076</v>
+      </c>
       <c r="J140" s="16">
         <f>I140*F140</f>
-        <v>0</v>
+        <v>5270.5807920792076</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -4553,10 +4838,13 @@
       <c r="H141" s="10">
         <v>0</v>
       </c>
-      <c r="I141" s="16"/>
+      <c r="I141" s="16">
+        <f>G141*(1-(H141/100))+A1+A2</f>
+        <v>2993.1367920792077</v>
+      </c>
       <c r="J141" s="16">
         <f>I141*F141</f>
-        <v>0</v>
+        <v>2993.1367920792077</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -4584,10 +4872,13 @@
       <c r="H142" s="10">
         <v>0</v>
       </c>
-      <c r="I142" s="16"/>
+      <c r="I142" s="16">
+        <f>G142*(1-(H142/100))+A1+A2</f>
+        <v>1579.6207920792081</v>
+      </c>
       <c r="J142" s="16">
         <f>I142*F142</f>
-        <v>0</v>
+        <v>1579.6207920792081</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4615,10 +4906,13 @@
       <c r="H143" s="10">
         <v>0</v>
       </c>
-      <c r="I143" s="16"/>
+      <c r="I143" s="16">
+        <f>G143*(1-(H143/100))+A1+A2</f>
+        <v>2719.1079920792076</v>
+      </c>
       <c r="J143" s="16">
         <f>I143*F143</f>
-        <v>0</v>
+        <v>2719.1079920792076</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -4646,10 +4940,13 @@
       <c r="H144" s="10">
         <v>0</v>
       </c>
-      <c r="I144" s="16"/>
+      <c r="I144" s="16">
+        <f>G144*(1-(H144/100))+A1+A2</f>
+        <v>4050.1407920792076</v>
+      </c>
       <c r="J144" s="16">
         <f>I144*F144</f>
-        <v>0</v>
+        <v>4050.1407920792076</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4671,10 +4968,13 @@
       <c r="H145" s="10">
         <v>0</v>
       </c>
-      <c r="I145" s="16"/>
+      <c r="I145" s="16">
+        <f>G145*(1-(H145/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J145" s="16">
         <f>I145*F145</f>
-        <v>0</v>
+        <v>122.32079207920793</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -4696,10 +4996,13 @@
       <c r="H146" s="10">
         <v>0</v>
       </c>
-      <c r="I146" s="16"/>
+      <c r="I146" s="16">
+        <f>G146*(1-(H146/100))+A1+A2</f>
+        <v>116.92079207920793</v>
+      </c>
       <c r="J146" s="16">
         <f>I146*F146</f>
-        <v>0</v>
+        <v>2338.4158415841584</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4721,10 +5024,13 @@
       <c r="H147" s="10">
         <v>0</v>
       </c>
-      <c r="I147" s="16"/>
+      <c r="I147" s="16">
+        <f>G147*(1-(H147/100))+A1+A2</f>
+        <v>236.72079207920794</v>
+      </c>
       <c r="J147" s="16">
         <f>I147*F147</f>
-        <v>0</v>
+        <v>473.44158415841588</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -4733,7 +5039,7 @@
       </c>
       <c r="J148" s="19">
         <f>SUM(J137:J147)</f>
-        <v>0</v>
+        <v>31504.611462376237</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -4812,10 +5118,13 @@
       <c r="H152" s="10">
         <v>0</v>
       </c>
-      <c r="I152" s="16"/>
+      <c r="I152" s="16">
+        <f>G152*(1-(H152/100))+A1+A2</f>
+        <v>2282.9207920792078</v>
+      </c>
       <c r="J152" s="16">
         <f>I152*F152</f>
-        <v>0</v>
+        <v>2282.9207920792078</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -4843,10 +5152,13 @@
       <c r="H153" s="10">
         <v>0</v>
       </c>
-      <c r="I153" s="16"/>
+      <c r="I153" s="16">
+        <f>G153*(1-(H153/100))+A1+A2</f>
+        <v>2919.9207920792078</v>
+      </c>
       <c r="J153" s="16">
         <f>I153*F153</f>
-        <v>0</v>
+        <v>2919.9207920792078</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -4874,10 +5186,13 @@
       <c r="H154" s="10">
         <v>0</v>
       </c>
-      <c r="I154" s="16"/>
+      <c r="I154" s="16">
+        <f>G154*(1-(H154/100))+A1+A2</f>
+        <v>4050.1407920792076</v>
+      </c>
       <c r="J154" s="16">
         <f>I154*F154</f>
-        <v>0</v>
+        <v>4050.1407920792076</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -4905,10 +5220,13 @@
       <c r="H155" s="10">
         <v>0</v>
       </c>
-      <c r="I155" s="16"/>
+      <c r="I155" s="16">
+        <f>G155*(1-(H155/100))+A1+A2</f>
+        <v>63.820792079207919</v>
+      </c>
       <c r="J155" s="16">
         <f>I155*F155</f>
-        <v>0</v>
+        <v>2233.727722772277</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -4930,10 +5248,13 @@
       <c r="H156" s="10">
         <v>0</v>
       </c>
-      <c r="I156" s="16"/>
+      <c r="I156" s="16">
+        <f>G156*(1-(H156/100))+A1+A2</f>
+        <v>122.32079207920793</v>
+      </c>
       <c r="J156" s="16">
         <f>I156*F156</f>
-        <v>0</v>
+        <v>366.9623762376238</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -4942,7 +5263,7 @@
       </c>
       <c r="J157" s="19">
         <f>SUM(J151:J156)</f>
-        <v>0</v>
+        <v>11853.672475247524</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -4950,102 +5271,163 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="159" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="7"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H160" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I160" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J160" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I161" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="J161" s="19">
+        <f>SUM(J160:J160)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>11</v>
       </c>
-      <c r="I159" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="J159" s="19">
-        <f>J157+J148+J134+J123+J115+J109+J77+J69+J55+J48+J34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A160" s="11" t="s">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="I163" s="17" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A161" s="11" t="s">
+      <c r="J163" s="19">
+        <f>J161+J157+J148+J134+J123+J115+J109+J77+J69+J55+J48+J34</f>
+        <v>326182.85484653455</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A162" s="11" t="s">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A164" s="12" t="s">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A165" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B165" s="3"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A166" s="13" t="s">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B166" s="3"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A167" s="13" t="s">
+      <c r="B169" s="3"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B167" s="13"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A168" s="13" t="s">
+      <c r="B170" s="3"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="B168" s="13"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B170" s="20"/>
-      <c r="C170" s="20" t="s">
+      <c r="B171" s="13"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="13" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B171" s="20"/>
-      <c r="C171" s="20" t="s">
+      <c r="B172" s="13"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="13"/>
+      <c r="B173" s="13"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B174" s="20"/>
+      <c r="C174" s="20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B172" s="20"/>
-      <c r="C172" s="20" t="s">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B175" s="20"/>
+      <c r="C175" s="20" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B173" s="20"/>
-      <c r="C173" s="20" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B176" s="20"/>
+      <c r="C176" s="20" t="s">
         <v>228</v>
       </c>
     </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="20"/>
+      <c r="C177" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
+  <mergeCells count="18">
+    <mergeCell ref="A159:J159"/>
     <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
     <mergeCell ref="A79:J79"/>
     <mergeCell ref="A111:J111"/>
     <mergeCell ref="A117:J117"/>
@@ -5064,7 +5446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FA8518-97E0-4EE6-A674-3485ADF78133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6AB69C-3B02-4409-A7F7-5C6448DECAF6}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/orcamentosParaClientes/OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx
+++ b/orcamentosParaClientes/OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\orcamentosParaClientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89568B01-F1B7-4B37-9AE6-B16BFB28BDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CFAF91-817E-4365-BC0B-96A53247C287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BBD3E7FF-013A-47F5-A438-50735331FFB1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA6EE1A8-BA1A-4915-B37B-9EB3C20C9C46}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado" sheetId="2" r:id="rId1"/>
@@ -862,50 +862,52 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,84 +1224,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95921E1-9E50-4AAD-A46F-D86602E29F0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF0DA72-0B28-4B18-B589-1FFE8DCF7672}">
   <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+      <c r="A1">
         <v>4.9504950495049505</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>2.9702970297029703</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1377,10 +1377,10 @@
       <c r="F16" s="11">
         <v>1</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="12">
         <v>37402.420792079203</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="12">
         <f>G16*F16</f>
         <v>37402.420792079203</v>
       </c>
@@ -1404,10 +1404,10 @@
       <c r="F17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>6243.6151920792081</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <f>G17*F17</f>
         <v>6243.6151920792081</v>
       </c>
@@ -1431,10 +1431,10 @@
       <c r="F18" s="11">
         <v>1</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="12">
         <v>5201.870092079208</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="12">
         <f>G18*F18</f>
         <v>5201.870092079208</v>
       </c>
@@ -1458,10 +1458,10 @@
       <c r="F19" s="11">
         <v>1</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="12">
         <v>6634.9650920792074</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="12">
         <f>G19*F19</f>
         <v>6634.9650920792074</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="F20" s="11">
         <v>1</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="12">
         <v>548.38279207920789</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="12">
         <f>G20*F20</f>
         <v>548.38279207920789</v>
       </c>
@@ -1512,10 +1512,10 @@
       <c r="F21" s="11">
         <v>1</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="12">
         <v>455.80459207920791</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="12">
         <f>G21*F21</f>
         <v>455.80459207920791</v>
       </c>
@@ -1539,10 +1539,10 @@
       <c r="F22" s="11">
         <v>1</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="12">
         <v>819.22219207920784</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="12">
         <f>G22*F22</f>
         <v>819.22219207920784</v>
       </c>
@@ -1566,10 +1566,10 @@
       <c r="F23" s="11">
         <v>1</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="12">
         <v>3851.913692079208</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="12">
         <f>G23*F23</f>
         <v>3851.913692079208</v>
       </c>
@@ -1593,10 +1593,10 @@
       <c r="F24" s="11">
         <v>1</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="12">
         <v>606.1766920792079</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="12">
         <f>G24*F24</f>
         <v>606.1766920792079</v>
       </c>
@@ -1620,10 +1620,10 @@
       <c r="F25" s="11">
         <v>1</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="12">
         <v>245.86349207920793</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="12">
         <f>G25*F25</f>
         <v>245.86349207920793</v>
       </c>
@@ -1643,10 +1643,10 @@
       <c r="F26" s="11">
         <v>1</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="12">
         <v>959.4583920792079</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="12">
         <f>G26*F26</f>
         <v>959.4583920792079</v>
       </c>
@@ -1666,10 +1666,10 @@
       <c r="F27" s="11">
         <v>1</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="12">
         <v>959.4583920792079</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="12">
         <f>G27*F27</f>
         <v>959.4583920792079</v>
       </c>
@@ -1693,10 +1693,10 @@
       <c r="F28" s="11">
         <v>1</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="12">
         <v>415.85299207920792</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="12">
         <f>G28*F28</f>
         <v>415.85299207920792</v>
       </c>
@@ -1720,10 +1720,10 @@
       <c r="F29" s="11">
         <v>1</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="12">
         <v>415.85299207920792</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="12">
         <f>G29*F29</f>
         <v>415.85299207920792</v>
       </c>
@@ -1747,10 +1747,10 @@
       <c r="F30" s="11">
         <v>1</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="12">
         <v>388.6777920792079</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="12">
         <f>G30*F30</f>
         <v>388.6777920792079</v>
       </c>
@@ -1774,10 +1774,10 @@
       <c r="F31" s="11">
         <v>1</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="12">
         <v>4050.1407920792076</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="12">
         <f>G31*F31</f>
         <v>4050.1407920792076</v>
       </c>
@@ -1795,10 +1795,10 @@
       <c r="F32" s="11">
         <v>1</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="12">
         <f>G32*F32</f>
         <v>122.32079207920793</v>
       </c>
@@ -1816,25 +1816,25 @@
       <c r="F33" s="11">
         <v>4</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="12">
         <v>236.72079207920794</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="12">
         <f>G33*F33</f>
         <v>946.88316831683176</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="14">
         <f>SUM(H15:H33)</f>
         <v>70268.879933663353</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1895,10 +1895,10 @@
       <c r="F38" s="11">
         <v>1</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="12">
         <v>35147.668292079201</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="12">
         <f>G38*F38</f>
         <v>35147.668292079201</v>
       </c>
@@ -1922,10 +1922,10 @@
       <c r="F39" s="11">
         <v>1</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="12">
         <v>6632.6300920792082</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="12">
         <f>G39*F39</f>
         <v>6632.6300920792082</v>
       </c>
@@ -1949,10 +1949,10 @@
       <c r="F40" s="11">
         <v>2</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="12">
         <v>2719.1079920792076</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="12">
         <f>G40*F40</f>
         <v>5438.2159841584153</v>
       </c>
@@ -1976,10 +1976,10 @@
       <c r="F41" s="11">
         <v>1</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="12">
         <v>4050.1407920792076</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="12">
         <f>G41*F41</f>
         <v>4050.1407920792076</v>
       </c>
@@ -1997,10 +1997,10 @@
       <c r="F42" s="11">
         <v>1</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="12">
         <f>G42*F42</f>
         <v>122.32079207920793</v>
       </c>
@@ -2020,10 +2020,10 @@
       <c r="F43" s="11">
         <v>1</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="12">
         <v>959.4583920792079</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="12">
         <f>G43*F43</f>
         <v>959.4583920792079</v>
       </c>
@@ -2047,10 +2047,10 @@
       <c r="F44" s="11">
         <v>1</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="12">
         <v>415.85299207920792</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="12">
         <f>G44*F44</f>
         <v>415.85299207920792</v>
       </c>
@@ -2074,10 +2074,10 @@
       <c r="F45" s="11">
         <v>1</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="12">
         <v>388.6777920792079</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="12">
         <f>G45*F45</f>
         <v>388.6777920792079</v>
       </c>
@@ -2101,10 +2101,10 @@
       <c r="F46" s="11">
         <v>1</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="12">
         <v>606.1766920792079</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="12">
         <f>G46*F46</f>
         <v>606.1766920792079</v>
       </c>
@@ -2122,25 +2122,25 @@
       <c r="F47" s="11">
         <v>2</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="12">
         <v>236.72079207920794</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="12">
         <f>G47*F47</f>
         <v>473.44158415841588</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="14">
         <f>SUM(H37:H47)</f>
         <v>54234.58340495047</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2193,10 +2193,10 @@
       <c r="F52" s="11">
         <v>180</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="12">
         <v>7.9207920792079207</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="12">
         <f>G52*F52</f>
         <v>1425.7425742574258</v>
       </c>
@@ -2214,15 +2214,15 @@
       <c r="F53" s="11">
         <v>15</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="12">
         <v>351.12079207920789</v>
       </c>
-      <c r="H53" s="11">
+      <c r="H53" s="12">
         <f>G53*F53</f>
         <v>5266.8118811881186</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>103</v>
       </c>
@@ -2241,25 +2241,25 @@
       <c r="F54" s="11">
         <v>125</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="12">
         <v>63.820792079207919</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="12">
         <f>G54*F54</f>
         <v>7977.5990099009896</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="14">
         <f>SUM(H51:H54)</f>
         <v>14670.153465346535</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2320,10 +2320,10 @@
       <c r="F59" s="11">
         <v>1</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="12">
         <v>21177.920792079211</v>
       </c>
-      <c r="H59" s="11">
+      <c r="H59" s="12">
         <f>G59*F59</f>
         <v>21177.920792079211</v>
       </c>
@@ -2347,10 +2347,10 @@
       <c r="F60" s="11">
         <v>16</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G60" s="12">
         <v>66.420792079207928</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="12">
         <f>G60*F60</f>
         <v>1062.7326732673268</v>
       </c>
@@ -2374,10 +2374,10 @@
       <c r="F61" s="11">
         <v>100</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G61" s="12">
         <v>25.800992079207919</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="12">
         <f>G61*F61</f>
         <v>2580.0992079207917</v>
       </c>
@@ -2401,10 +2401,10 @@
       <c r="F62" s="11">
         <v>1</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G62" s="12">
         <v>4050.1407920792076</v>
       </c>
-      <c r="H62" s="11">
+      <c r="H62" s="12">
         <f>G62*F62</f>
         <v>4050.1407920792076</v>
       </c>
@@ -2422,15 +2422,15 @@
       <c r="F63" s="11">
         <v>1</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G63" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H63" s="11">
+      <c r="H63" s="12">
         <f>G63*F63</f>
         <v>122.32079207920793</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="144" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>116</v>
       </c>
@@ -2449,10 +2449,10 @@
       <c r="F64" s="11">
         <v>1</v>
       </c>
-      <c r="G64" s="11">
+      <c r="G64" s="12">
         <v>3657.3067920792078</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="12">
         <f>G64*F64</f>
         <v>3657.3067920792078</v>
       </c>
@@ -2470,10 +2470,10 @@
       <c r="F65" s="11">
         <v>2</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G65" s="12">
         <v>616.9207920792079</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="12">
         <f>G65*F65</f>
         <v>1233.8415841584158</v>
       </c>
@@ -2491,10 +2491,10 @@
       <c r="F66" s="11">
         <v>1</v>
       </c>
-      <c r="G66" s="11">
+      <c r="G66" s="12">
         <v>5509.220792079208</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="12">
         <f>G66*F66</f>
         <v>5509.220792079208</v>
       </c>
@@ -2518,10 +2518,10 @@
       <c r="F67" s="11">
         <v>1</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G67" s="12">
         <v>4563.8698920792076</v>
       </c>
-      <c r="H67" s="11">
+      <c r="H67" s="12">
         <f>G67*F67</f>
         <v>4563.8698920792076</v>
       </c>
@@ -2545,25 +2545,25 @@
       <c r="F68" s="11">
         <v>1</v>
       </c>
-      <c r="G68" s="11">
+      <c r="G68" s="12">
         <v>3737.6831920792079</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="12">
         <f>G68*F68</f>
         <v>3737.6831920792079</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G69" s="12" t="s">
+      <c r="G69" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="14">
         <f>SUM(H58:H68)</f>
         <v>47695.136509900993</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2622,10 +2622,10 @@
       <c r="F73" s="11">
         <v>1</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G73" s="12">
         <v>7.9207920792079207</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="12">
         <f>G73*F73</f>
         <v>7.9207920792079207</v>
       </c>
@@ -2647,10 +2647,10 @@
       <c r="F74" s="11">
         <v>2</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G74" s="12">
         <v>7.9207920792079207</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="12">
         <f>G74*F74</f>
         <v>15.841584158415841</v>
       </c>
@@ -2674,10 +2674,10 @@
       <c r="F75" s="11">
         <v>6</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="12">
         <v>66.420792079207928</v>
       </c>
-      <c r="H75" s="11">
+      <c r="H75" s="12">
         <f>G75*F75</f>
         <v>398.52475247524757</v>
       </c>
@@ -2701,25 +2701,25 @@
       <c r="F76" s="11">
         <v>40</v>
       </c>
-      <c r="G76" s="11">
+      <c r="G76" s="12">
         <v>25.800992079207919</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="12">
         <f>G76*F76</f>
         <v>1032.0396831683167</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G77" s="12" t="s">
+      <c r="G77" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="14">
         <f>SUM(H72:H76)</f>
         <v>1454.326811881188</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2780,10 +2780,10 @@
       <c r="F81" s="11">
         <v>1</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G81" s="12">
         <v>9769.9207920792069</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="12">
         <f>G81*F81</f>
         <v>9769.9207920792069</v>
       </c>
@@ -2807,10 +2807,10 @@
       <c r="F82" s="11">
         <v>1</v>
       </c>
-      <c r="G82" s="11">
+      <c r="G82" s="12">
         <v>4297.9207920792078</v>
       </c>
-      <c r="H82" s="11">
+      <c r="H82" s="12">
         <f>G82*F82</f>
         <v>4297.9207920792078</v>
       </c>
@@ -2834,10 +2834,10 @@
       <c r="F83" s="11">
         <v>1</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="12">
         <v>6632.6300920792082</v>
       </c>
-      <c r="H83" s="11">
+      <c r="H83" s="12">
         <f>G83*F83</f>
         <v>6632.6300920792082</v>
       </c>
@@ -2861,10 +2861,10 @@
       <c r="F84" s="11">
         <v>1</v>
       </c>
-      <c r="G84" s="11">
+      <c r="G84" s="12">
         <v>3789.1702920792077</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="12">
         <f>G84*F84</f>
         <v>3789.1702920792077</v>
       </c>
@@ -2888,10 +2888,10 @@
       <c r="F85" s="11">
         <v>1</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G85" s="12">
         <v>3668.8627920792078</v>
       </c>
-      <c r="H85" s="11">
+      <c r="H85" s="12">
         <f>G85*F85</f>
         <v>3668.8627920792078</v>
       </c>
@@ -2915,10 +2915,10 @@
       <c r="F86" s="11">
         <v>1</v>
       </c>
-      <c r="G86" s="11">
+      <c r="G86" s="12">
         <v>1861.2085920792081</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="12">
         <f>G86*F86</f>
         <v>1861.2085920792081</v>
       </c>
@@ -2942,10 +2942,10 @@
       <c r="F87" s="11">
         <v>1</v>
       </c>
-      <c r="G87" s="11">
+      <c r="G87" s="12">
         <v>1472.3395920792079</v>
       </c>
-      <c r="H87" s="11">
+      <c r="H87" s="12">
         <f>G87*F87</f>
         <v>1472.3395920792079</v>
       </c>
@@ -2969,10 +2969,10 @@
       <c r="F88" s="11">
         <v>1</v>
       </c>
-      <c r="G88" s="11">
+      <c r="G88" s="12">
         <v>3658.6416920792076</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="12">
         <f>G88*F88</f>
         <v>3658.6416920792076</v>
       </c>
@@ -2996,10 +2996,10 @@
       <c r="F89" s="11">
         <v>1</v>
       </c>
-      <c r="G89" s="11">
+      <c r="G89" s="12">
         <v>4050.1407920792076</v>
       </c>
-      <c r="H89" s="11">
+      <c r="H89" s="12">
         <f>G89*F89</f>
         <v>4050.1407920792076</v>
       </c>
@@ -3017,10 +3017,10 @@
       <c r="F90" s="11">
         <v>1</v>
       </c>
-      <c r="G90" s="11">
+      <c r="G90" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H90" s="11">
+      <c r="H90" s="12">
         <f>G90*F90</f>
         <v>122.32079207920793</v>
       </c>
@@ -3044,10 +3044,10 @@
       <c r="F91" s="11">
         <v>1</v>
       </c>
-      <c r="G91" s="11">
+      <c r="G91" s="12">
         <v>2442.2981920792076</v>
       </c>
-      <c r="H91" s="11">
+      <c r="H91" s="12">
         <f>G91*F91</f>
         <v>2442.2981920792076</v>
       </c>
@@ -3071,10 +3071,10 @@
       <c r="F92" s="11">
         <v>4</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G92" s="12">
         <v>66.420792079207928</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="12">
         <f>G92*F92</f>
         <v>265.68316831683171</v>
       </c>
@@ -3098,10 +3098,10 @@
       <c r="F93" s="11">
         <v>10</v>
       </c>
-      <c r="G93" s="11">
+      <c r="G93" s="12">
         <v>25.800992079207919</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H93" s="12">
         <f>G93*F93</f>
         <v>258.00992079207919</v>
       </c>
@@ -3125,10 +3125,10 @@
       <c r="F94" s="11">
         <v>1</v>
       </c>
-      <c r="G94" s="11">
+      <c r="G94" s="12">
         <v>548.34979207920787</v>
       </c>
-      <c r="H94" s="11">
+      <c r="H94" s="12">
         <f>G94*F94</f>
         <v>548.34979207920787</v>
       </c>
@@ -3152,10 +3152,10 @@
       <c r="F95" s="11">
         <v>1</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="12">
         <v>455.8197920792079</v>
       </c>
-      <c r="H95" s="11">
+      <c r="H95" s="12">
         <f>G95*F95</f>
         <v>455.8197920792079</v>
       </c>
@@ -3179,10 +3179,10 @@
       <c r="F96" s="11">
         <v>1</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="12">
         <v>859.79229207920787</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="12">
         <f>G96*F96</f>
         <v>859.79229207920787</v>
       </c>
@@ -3206,10 +3206,10 @@
       <c r="F97" s="11">
         <v>2</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G97" s="12">
         <v>606.1766920792079</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H97" s="12">
         <f>G97*F97</f>
         <v>1212.3533841584158</v>
       </c>
@@ -3233,10 +3233,10 @@
       <c r="F98" s="11">
         <v>2</v>
       </c>
-      <c r="G98" s="11">
+      <c r="G98" s="12">
         <v>245.86349207920793</v>
       </c>
-      <c r="H98" s="11">
+      <c r="H98" s="12">
         <f>G98*F98</f>
         <v>491.72698415841586</v>
       </c>
@@ -3256,10 +3256,10 @@
       <c r="F99" s="11">
         <v>1</v>
       </c>
-      <c r="G99" s="11">
+      <c r="G99" s="12">
         <v>2826.8407920792079</v>
       </c>
-      <c r="H99" s="11">
+      <c r="H99" s="12">
         <f>G99*F99</f>
         <v>2826.8407920792079</v>
       </c>
@@ -3279,10 +3279,10 @@
       <c r="F100" s="11">
         <v>1</v>
       </c>
-      <c r="G100" s="11">
+      <c r="G100" s="12">
         <v>959.4583920792079</v>
       </c>
-      <c r="H100" s="11">
+      <c r="H100" s="12">
         <f>G100*F100</f>
         <v>959.4583920792079</v>
       </c>
@@ -3302,10 +3302,10 @@
       <c r="F101" s="11">
         <v>1</v>
       </c>
-      <c r="G101" s="11">
+      <c r="G101" s="12">
         <v>959.4583920792079</v>
       </c>
-      <c r="H101" s="11">
+      <c r="H101" s="12">
         <f>G101*F101</f>
         <v>959.4583920792079</v>
       </c>
@@ -3325,10 +3325,10 @@
       <c r="F102" s="11">
         <v>1</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="12">
         <v>959.4583920792079</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H102" s="12">
         <f>G102*F102</f>
         <v>959.4583920792079</v>
       </c>
@@ -3348,10 +3348,10 @@
       <c r="F103" s="11">
         <v>1</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G103" s="12">
         <v>959.4583920792079</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H103" s="12">
         <f>G103*F103</f>
         <v>959.4583920792079</v>
       </c>
@@ -3375,10 +3375,10 @@
       <c r="F104" s="11">
         <v>1</v>
       </c>
-      <c r="G104" s="11">
+      <c r="G104" s="12">
         <v>415.85299207920792</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="12">
         <f>G104*F104</f>
         <v>415.85299207920792</v>
       </c>
@@ -3402,10 +3402,10 @@
       <c r="F105" s="11">
         <v>1</v>
       </c>
-      <c r="G105" s="11">
+      <c r="G105" s="12">
         <v>415.85299207920792</v>
       </c>
-      <c r="H105" s="11">
+      <c r="H105" s="12">
         <f>G105*F105</f>
         <v>415.85299207920792</v>
       </c>
@@ -3429,10 +3429,10 @@
       <c r="F106" s="11">
         <v>1</v>
       </c>
-      <c r="G106" s="11">
+      <c r="G106" s="12">
         <v>388.6777920792079</v>
       </c>
-      <c r="H106" s="11">
+      <c r="H106" s="12">
         <f>G106*F106</f>
         <v>388.6777920792079</v>
       </c>
@@ -3456,10 +3456,10 @@
       <c r="F107" s="11">
         <v>1</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="12">
         <v>388.6777920792079</v>
       </c>
-      <c r="H107" s="11">
+      <c r="H107" s="12">
         <f>G107*F107</f>
         <v>388.6777920792079</v>
       </c>
@@ -3477,25 +3477,25 @@
       <c r="F108" s="11">
         <v>5</v>
       </c>
-      <c r="G108" s="11">
+      <c r="G108" s="12">
         <v>236.72079207920794</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="12">
         <f>G108*F108</f>
         <v>1183.6039603960396</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G109" s="12" t="s">
+      <c r="G109" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H109" s="13">
+      <c r="H109" s="14">
         <f>SUM(H80:H108)</f>
         <v>55314.529635643543</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3548,15 +3548,15 @@
       <c r="F113" s="11">
         <v>20</v>
       </c>
-      <c r="G113" s="11">
+      <c r="G113" s="12">
         <v>7.9207920792079207</v>
       </c>
-      <c r="H113" s="11">
+      <c r="H113" s="12">
         <f>G113*F113</f>
         <v>158.41584158415841</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>103</v>
       </c>
@@ -3575,25 +3575,25 @@
       <c r="F114" s="11">
         <v>200</v>
       </c>
-      <c r="G114" s="11">
+      <c r="G114" s="12">
         <v>63.820792079207919</v>
       </c>
-      <c r="H114" s="11">
+      <c r="H114" s="12">
         <f>G114*F114</f>
         <v>12764.158415841584</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G115" s="12" t="s">
+      <c r="G115" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H115" s="13">
+      <c r="H115" s="14">
         <f>SUM(H112:H114)</f>
         <v>12922.574257425742</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3654,10 +3654,10 @@
       <c r="F119" s="11">
         <v>1</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="12">
         <v>2749.2275920792076</v>
       </c>
-      <c r="H119" s="11">
+      <c r="H119" s="12">
         <f>G119*F119</f>
         <v>2749.2275920792076</v>
       </c>
@@ -3675,10 +3675,10 @@
       <c r="F120" s="11">
         <v>1</v>
       </c>
-      <c r="G120" s="11">
+      <c r="G120" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H120" s="11">
+      <c r="H120" s="12">
         <f>G120*F120</f>
         <v>122.32079207920793</v>
       </c>
@@ -3702,10 +3702,10 @@
       <c r="F121" s="11">
         <v>2</v>
       </c>
-      <c r="G121" s="11">
+      <c r="G121" s="12">
         <v>564.34069207920788</v>
       </c>
-      <c r="H121" s="11">
+      <c r="H121" s="12">
         <f>G121*F121</f>
         <v>1128.6813841584158</v>
       </c>
@@ -3723,25 +3723,25 @@
       <c r="F122" s="11">
         <v>4</v>
       </c>
-      <c r="G122" s="11">
+      <c r="G122" s="12">
         <v>527.9207920792079</v>
       </c>
-      <c r="H122" s="11">
+      <c r="H122" s="12">
         <f>G122*F122</f>
         <v>2111.6831683168316</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G123" s="12" t="s">
+      <c r="G123" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H123" s="13">
+      <c r="H123" s="14">
         <f>SUM(H118:H122)</f>
         <v>6111.9129366336629</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3802,10 +3802,10 @@
       <c r="F127" s="11">
         <v>7</v>
       </c>
-      <c r="G127" s="11">
+      <c r="G127" s="12">
         <v>564.34069207920788</v>
       </c>
-      <c r="H127" s="11">
+      <c r="H127" s="12">
         <f>G127*F127</f>
         <v>3950.3848445544554</v>
       </c>
@@ -3829,10 +3829,10 @@
       <c r="F128" s="11">
         <v>10</v>
       </c>
-      <c r="G128" s="11">
+      <c r="G128" s="12">
         <v>79.420792079207928</v>
       </c>
-      <c r="H128" s="11">
+      <c r="H128" s="12">
         <f>G128*F128</f>
         <v>794.20792079207922</v>
       </c>
@@ -3850,15 +3850,15 @@
       <c r="F129" s="11">
         <v>3</v>
       </c>
-      <c r="G129" s="11">
+      <c r="G129" s="12">
         <v>332.9207920792079</v>
       </c>
-      <c r="H129" s="11">
+      <c r="H129" s="12">
         <f>G129*F129</f>
         <v>998.7623762376237</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="11" t="s">
         <v>190</v>
       </c>
@@ -3877,10 +3877,10 @@
       <c r="F130" s="11">
         <v>140</v>
       </c>
-      <c r="G130" s="11">
+      <c r="G130" s="12">
         <v>7.9207920792079207</v>
       </c>
-      <c r="H130" s="11">
+      <c r="H130" s="12">
         <f>G130*F130</f>
         <v>1108.9108910891089</v>
       </c>
@@ -3904,10 +3904,10 @@
       <c r="F131" s="11">
         <v>3</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="12">
         <v>2282.9207920792078</v>
       </c>
-      <c r="H131" s="11">
+      <c r="H131" s="12">
         <f>G131*F131</f>
         <v>6848.7623762376234</v>
       </c>
@@ -3931,10 +3931,10 @@
       <c r="F132" s="11">
         <v>2</v>
       </c>
-      <c r="G132" s="11">
+      <c r="G132" s="12">
         <v>2919.9207920792078</v>
       </c>
-      <c r="H132" s="11">
+      <c r="H132" s="12">
         <f>G132*F132</f>
         <v>5839.8415841584156</v>
       </c>
@@ -3952,25 +3952,25 @@
       <c r="F133" s="11">
         <v>5</v>
       </c>
-      <c r="G133" s="11">
+      <c r="G133" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H133" s="11">
+      <c r="H133" s="12">
         <f>G133*F133</f>
         <v>611.60396039603961</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G134" s="12" t="s">
+      <c r="G134" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H134" s="13">
+      <c r="H134" s="14">
         <f>SUM(H126:H133)</f>
         <v>20152.473953465342</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4031,10 @@
       <c r="F138" s="11">
         <v>1</v>
       </c>
-      <c r="G138" s="11">
+      <c r="G138" s="12">
         <v>7690.0709920792078</v>
       </c>
-      <c r="H138" s="11">
+      <c r="H138" s="12">
         <f>G138*F138</f>
         <v>7690.0709920792078</v>
       </c>
@@ -4058,10 +4058,10 @@
       <c r="F139" s="11">
         <v>1</v>
       </c>
-      <c r="G139" s="11">
+      <c r="G139" s="12">
         <v>4267.7750920792078</v>
       </c>
-      <c r="H139" s="11">
+      <c r="H139" s="12">
         <f>G139*F139</f>
         <v>4267.7750920792078</v>
       </c>
@@ -4085,10 +4085,10 @@
       <c r="F140" s="11">
         <v>1</v>
       </c>
-      <c r="G140" s="11">
+      <c r="G140" s="12">
         <v>5270.5807920792076</v>
       </c>
-      <c r="H140" s="11">
+      <c r="H140" s="12">
         <f>G140*F140</f>
         <v>5270.5807920792076</v>
       </c>
@@ -4112,10 +4112,10 @@
       <c r="F141" s="11">
         <v>1</v>
       </c>
-      <c r="G141" s="11">
+      <c r="G141" s="12">
         <v>2993.1367920792077</v>
       </c>
-      <c r="H141" s="11">
+      <c r="H141" s="12">
         <f>G141*F141</f>
         <v>2993.1367920792077</v>
       </c>
@@ -4139,10 +4139,10 @@
       <c r="F142" s="11">
         <v>1</v>
       </c>
-      <c r="G142" s="11">
+      <c r="G142" s="12">
         <v>1579.6207920792081</v>
       </c>
-      <c r="H142" s="11">
+      <c r="H142" s="12">
         <f>G142*F142</f>
         <v>1579.6207920792081</v>
       </c>
@@ -4166,10 +4166,10 @@
       <c r="F143" s="11">
         <v>1</v>
       </c>
-      <c r="G143" s="11">
+      <c r="G143" s="12">
         <v>2719.1079920792076</v>
       </c>
-      <c r="H143" s="11">
+      <c r="H143" s="12">
         <f>G143*F143</f>
         <v>2719.1079920792076</v>
       </c>
@@ -4193,10 +4193,10 @@
       <c r="F144" s="11">
         <v>1</v>
       </c>
-      <c r="G144" s="11">
+      <c r="G144" s="12">
         <v>4050.1407920792076</v>
       </c>
-      <c r="H144" s="11">
+      <c r="H144" s="12">
         <f>G144*F144</f>
         <v>4050.1407920792076</v>
       </c>
@@ -4214,10 +4214,10 @@
       <c r="F145" s="11">
         <v>1</v>
       </c>
-      <c r="G145" s="11">
+      <c r="G145" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H145" s="11">
+      <c r="H145" s="12">
         <f>G145*F145</f>
         <v>122.32079207920793</v>
       </c>
@@ -4235,10 +4235,10 @@
       <c r="F146" s="11">
         <v>20</v>
       </c>
-      <c r="G146" s="11">
+      <c r="G146" s="12">
         <v>116.92079207920793</v>
       </c>
-      <c r="H146" s="11">
+      <c r="H146" s="12">
         <f>G146*F146</f>
         <v>2338.4158415841584</v>
       </c>
@@ -4256,25 +4256,25 @@
       <c r="F147" s="11">
         <v>2</v>
       </c>
-      <c r="G147" s="11">
+      <c r="G147" s="12">
         <v>236.72079207920794</v>
       </c>
-      <c r="H147" s="11">
+      <c r="H147" s="12">
         <f>G147*F147</f>
         <v>473.44158415841588</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G148" s="12" t="s">
+      <c r="G148" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H148" s="13">
+      <c r="H148" s="14">
         <f>SUM(H137:H147)</f>
         <v>31504.611462376237</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4335,10 +4335,10 @@
       <c r="F152" s="11">
         <v>1</v>
       </c>
-      <c r="G152" s="11">
+      <c r="G152" s="12">
         <v>2282.9207920792078</v>
       </c>
-      <c r="H152" s="11">
+      <c r="H152" s="12">
         <f>G152*F152</f>
         <v>2282.9207920792078</v>
       </c>
@@ -4362,10 +4362,10 @@
       <c r="F153" s="11">
         <v>1</v>
       </c>
-      <c r="G153" s="11">
+      <c r="G153" s="12">
         <v>2919.9207920792078</v>
       </c>
-      <c r="H153" s="11">
+      <c r="H153" s="12">
         <f>G153*F153</f>
         <v>2919.9207920792078</v>
       </c>
@@ -4389,15 +4389,15 @@
       <c r="F154" s="11">
         <v>1</v>
       </c>
-      <c r="G154" s="11">
+      <c r="G154" s="12">
         <v>4050.1407920792076</v>
       </c>
-      <c r="H154" s="11">
+      <c r="H154" s="12">
         <f>G154*F154</f>
         <v>4050.1407920792076</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="11" t="s">
         <v>103</v>
       </c>
@@ -4416,10 +4416,10 @@
       <c r="F155" s="11">
         <v>35</v>
       </c>
-      <c r="G155" s="11">
+      <c r="G155" s="12">
         <v>63.820792079207919</v>
       </c>
-      <c r="H155" s="11">
+      <c r="H155" s="12">
         <f>G155*F155</f>
         <v>2233.727722772277</v>
       </c>
@@ -4437,25 +4437,25 @@
       <c r="F156" s="11">
         <v>3</v>
       </c>
-      <c r="G156" s="11">
+      <c r="G156" s="12">
         <v>122.32079207920793</v>
       </c>
-      <c r="H156" s="11">
+      <c r="H156" s="12">
         <f>G156*F156</f>
         <v>366.9623762376238</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G157" s="12" t="s">
+      <c r="G157" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H157" s="13">
+      <c r="H157" s="14">
         <f>SUM(H151:H156)</f>
         <v>11853.672475247524</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4498,83 +4498,83 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G161" s="12" t="s">
+      <c r="G161" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H161" s="13">
+      <c r="H161" s="14">
         <f>SUM(H160:H160)</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>11</v>
       </c>
-      <c r="G163" s="12" t="s">
+      <c r="G163" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H163" s="13">
+      <c r="H163" s="14">
         <f>H161+H157+H148+H134+H123+H115+H109+H77+H69+H55+H48+H34</f>
         <v>326182.85484653455</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="15" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="15" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="15" t="s">
+      <c r="A167" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="15" t="s">
+      <c r="A168" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="16" t="s">
+      <c r="A169" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="B169" s="17"/>
+      <c r="B169" s="3"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B170" s="17"/>
+      <c r="B170" s="3"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="16" t="s">
+      <c r="A171" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="B171" s="16"/>
+      <c r="B171" s="17"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="16" t="s">
+      <c r="A172" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B172" s="16"/>
+      <c r="B172" s="17"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
+      <c r="A173" s="17"/>
+      <c r="B173" s="17"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B174" s="18"/>
@@ -4626,7 +4626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155CEDB5-56B6-4041-A02C-C956FFD1A5A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37058C0D-5600-4F52-B568-BC61F013B979}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/orcamentosParaClientes/OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx
+++ b/orcamentosParaClientes/OrcamentoGerado_Quantum Engenharia Elétrica Ltda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\myxlsm\orcamentosParaClientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CFAF91-817E-4365-BC0B-96A53247C287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAE7CC1-9F39-48C4-A259-4E8BCA8E10B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA6EE1A8-BA1A-4915-B37B-9EB3C20C9C46}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1991ECDE-7450-4927-B772-E7FAC8BA625B}"/>
   </bookViews>
   <sheets>
     <sheet name="resultado" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Pelo presente, apresentamos a proposta para Locação conforme descrição abaixo.</t>
+    <t>Pelo presente, apresentamos a proposta para Venda conforme descrição abaixo.</t>
   </si>
   <si>
     <t>Cenário: PRAÇA ARNOLDO DE SOUZA</t>
@@ -1224,8 +1224,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF0DA72-0B28-4B18-B589-1FFE8DCF7672}">
-  <dimension ref="A1:H177"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04727267-9F22-4D70-ADC5-F15BE9080295}">
+  <dimension ref="A3:H177"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1241,16 +1241,6 @@
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>4.9504950495049505</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2.9702970297029703</v>
-      </c>
-    </row>
     <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>0</v>
@@ -1378,11 +1368,11 @@
         <v>1</v>
       </c>
       <c r="G16" s="12">
-        <v>37402.420792079203</v>
+        <v>67997.920792079211</v>
       </c>
       <c r="H16" s="12">
         <f>G16*F16</f>
-        <v>37402.420792079203</v>
+        <v>67997.920792079211</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1405,11 +1395,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="12">
-        <v>6243.6151920792081</v>
+        <v>10400.740792079207</v>
       </c>
       <c r="H17" s="12">
         <f>G17*F17</f>
-        <v>6243.6151920792081</v>
+        <v>10400.740792079207</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1432,11 +1422,11 @@
         <v>1</v>
       </c>
       <c r="G18" s="12">
-        <v>5201.870092079208</v>
+        <v>8664.5007920792068</v>
       </c>
       <c r="H18" s="12">
         <f>G18*F18</f>
-        <v>5201.870092079208</v>
+        <v>8664.5007920792068</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1459,11 +1449,11 @@
         <v>1</v>
       </c>
       <c r="G19" s="12">
-        <v>6634.9650920792074</v>
+        <v>11052.990792079207</v>
       </c>
       <c r="H19" s="12">
         <f>G19*F19</f>
-        <v>6634.9650920792074</v>
+        <v>11052.990792079207</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1486,11 +1476,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="12">
-        <v>548.38279207920789</v>
+        <v>908.69079207920788</v>
       </c>
       <c r="H20" s="12">
         <f>G20*F20</f>
-        <v>548.38279207920789</v>
+        <v>908.69079207920788</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1513,11 +1503,11 @@
         <v>1</v>
       </c>
       <c r="G21" s="12">
-        <v>455.80459207920791</v>
+        <v>754.39079207920793</v>
       </c>
       <c r="H21" s="12">
         <f>G21*F21</f>
-        <v>455.80459207920791</v>
+        <v>754.39079207920793</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1540,11 +1530,11 @@
         <v>1</v>
       </c>
       <c r="G22" s="12">
-        <v>819.22219207920784</v>
+        <v>1360.0907920792081</v>
       </c>
       <c r="H22" s="12">
         <f>G22*F22</f>
-        <v>819.22219207920784</v>
+        <v>1360.0907920792081</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -1567,11 +1557,11 @@
         <v>1</v>
       </c>
       <c r="G23" s="12">
-        <v>3851.913692079208</v>
+        <v>6414.5707920792074</v>
       </c>
       <c r="H23" s="12">
         <f>G23*F23</f>
-        <v>3851.913692079208</v>
+        <v>6414.5707920792074</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1594,11 +1584,11 @@
         <v>1</v>
       </c>
       <c r="G24" s="12">
-        <v>606.1766920792079</v>
+        <v>1005.0107920792079</v>
       </c>
       <c r="H24" s="12">
         <f>G24*F24</f>
-        <v>606.1766920792079</v>
+        <v>1005.0107920792079</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1621,11 +1611,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="12">
-        <v>245.86349207920793</v>
+        <v>404.49079207920789</v>
       </c>
       <c r="H25" s="12">
         <f>G25*F25</f>
-        <v>245.86349207920793</v>
+        <v>404.49079207920789</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1644,11 +1634,11 @@
         <v>1</v>
       </c>
       <c r="G26" s="12">
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
       <c r="H26" s="12">
         <f>G26*F26</f>
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1667,11 +1657,11 @@
         <v>1</v>
       </c>
       <c r="G27" s="12">
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
       <c r="H27" s="12">
         <f>G27*F27</f>
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1694,11 +1684,11 @@
         <v>1</v>
       </c>
       <c r="G28" s="12">
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
       <c r="H28" s="12">
         <f>G28*F28</f>
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1721,11 +1711,11 @@
         <v>1</v>
       </c>
       <c r="G29" s="12">
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
       <c r="H29" s="12">
         <f>G29*F29</f>
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -1748,11 +1738,11 @@
         <v>1</v>
       </c>
       <c r="G30" s="12">
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
       <c r="H30" s="12">
         <f>G30*F30</f>
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -1775,11 +1765,11 @@
         <v>1</v>
       </c>
       <c r="G31" s="12">
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
       <c r="H31" s="12">
         <f>G31*F31</f>
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1796,11 +1786,11 @@
         <v>1</v>
       </c>
       <c r="G32" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H32" s="12">
         <f>G32*F32</f>
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1817,11 +1807,11 @@
         <v>4</v>
       </c>
       <c r="G33" s="12">
-        <v>236.72079207920794</v>
+        <v>293.9207920792079</v>
       </c>
       <c r="H33" s="12">
         <f>G33*F33</f>
-        <v>946.88316831683176</v>
+        <v>1175.6831683168316</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1830,7 +1820,7 @@
       </c>
       <c r="H34" s="14">
         <f>SUM(H15:H33)</f>
-        <v>70268.879933663353</v>
+        <v>121278.30663366335</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1896,11 +1886,11 @@
         <v>1</v>
       </c>
       <c r="G38" s="12">
-        <v>35147.668292079201</v>
+        <v>63898.3707920792</v>
       </c>
       <c r="H38" s="12">
         <f>G38*F38</f>
-        <v>35147.668292079201</v>
+        <v>63898.3707920792</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1923,11 +1913,11 @@
         <v>1</v>
       </c>
       <c r="G39" s="12">
-        <v>6632.6300920792082</v>
+        <v>11049.100792079207</v>
       </c>
       <c r="H39" s="12">
         <f>G39*F39</f>
-        <v>6632.6300920792082</v>
+        <v>11049.100792079207</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1950,11 +1940,11 @@
         <v>2</v>
       </c>
       <c r="G40" s="12">
-        <v>2719.1079920792076</v>
+        <v>4526.5707920792074</v>
       </c>
       <c r="H40" s="12">
         <f>G40*F40</f>
-        <v>5438.2159841584153</v>
+        <v>9053.1415841584148</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -1977,11 +1967,11 @@
         <v>1</v>
       </c>
       <c r="G41" s="12">
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
       <c r="H41" s="12">
         <f>G41*F41</f>
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1998,11 +1988,11 @@
         <v>1</v>
       </c>
       <c r="G42" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H42" s="12">
         <f>G42*F42</f>
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2021,11 +2011,11 @@
         <v>1</v>
       </c>
       <c r="G43" s="12">
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
       <c r="H43" s="12">
         <f>G43*F43</f>
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2048,11 +2038,11 @@
         <v>1</v>
       </c>
       <c r="G44" s="12">
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
       <c r="H44" s="12">
         <f>G44*F44</f>
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2075,11 +2065,11 @@
         <v>1</v>
       </c>
       <c r="G45" s="12">
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
       <c r="H45" s="12">
         <f>G45*F45</f>
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2102,11 +2092,11 @@
         <v>1</v>
       </c>
       <c r="G46" s="12">
-        <v>606.1766920792079</v>
+        <v>1005.0107920792079</v>
       </c>
       <c r="H46" s="12">
         <f>G46*F46</f>
-        <v>606.1766920792079</v>
+        <v>1005.0107920792079</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2123,11 +2113,11 @@
         <v>2</v>
       </c>
       <c r="G47" s="12">
-        <v>236.72079207920794</v>
+        <v>293.9207920792079</v>
       </c>
       <c r="H47" s="12">
         <f>G47*F47</f>
-        <v>473.44158415841588</v>
+        <v>587.8415841584158</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2136,7 +2126,7 @@
       </c>
       <c r="H48" s="14">
         <f>SUM(H37:H47)</f>
-        <v>54234.58340495047</v>
+        <v>94451.059504950477</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -2194,11 +2184,11 @@
         <v>180</v>
       </c>
       <c r="G52" s="12">
-        <v>7.9207920792079207</v>
+        <v>52.120792079207924</v>
       </c>
       <c r="H52" s="12">
         <f>G52*F52</f>
-        <v>1425.7425742574258</v>
+        <v>9381.7425742574269</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2215,11 +2205,11 @@
         <v>15</v>
       </c>
       <c r="G53" s="12">
-        <v>351.12079207920789</v>
+        <v>436.9207920792079</v>
       </c>
       <c r="H53" s="12">
         <f>G53*F53</f>
-        <v>5266.8118811881186</v>
+        <v>6553.8118811881186</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2255,7 +2245,7 @@
       </c>
       <c r="H55" s="14">
         <f>SUM(H51:H54)</f>
-        <v>14670.153465346535</v>
+        <v>23913.153465346535</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2321,11 +2311,11 @@
         <v>1</v>
       </c>
       <c r="G59" s="12">
-        <v>21177.920792079211</v>
+        <v>29007.920792079211</v>
       </c>
       <c r="H59" s="12">
         <f>G59*F59</f>
-        <v>21177.920792079211</v>
+        <v>29007.920792079211</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2375,11 +2365,11 @@
         <v>100</v>
       </c>
       <c r="G61" s="12">
-        <v>25.800992079207919</v>
+        <v>25.80079207920792</v>
       </c>
       <c r="H61" s="12">
         <f>G61*F61</f>
-        <v>2580.0992079207917</v>
+        <v>2580.0792079207918</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -2402,11 +2392,11 @@
         <v>1</v>
       </c>
       <c r="G62" s="12">
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
       <c r="H62" s="12">
         <f>G62*F62</f>
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2423,11 +2413,11 @@
         <v>1</v>
       </c>
       <c r="G63" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H63" s="12">
         <f>G63*F63</f>
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="144" x14ac:dyDescent="0.3">
@@ -2450,11 +2440,11 @@
         <v>1</v>
       </c>
       <c r="G64" s="12">
-        <v>3657.3067920792078</v>
+        <v>6090.2307920792082</v>
       </c>
       <c r="H64" s="12">
         <f>G64*F64</f>
-        <v>3657.3067920792078</v>
+        <v>6090.2307920792082</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2471,11 +2461,11 @@
         <v>2</v>
       </c>
       <c r="G65" s="12">
-        <v>616.9207920792079</v>
+        <v>7.9207920792079207</v>
       </c>
       <c r="H65" s="12">
         <f>G65*F65</f>
-        <v>1233.8415841584158</v>
+        <v>15.841584158415841</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -2492,11 +2482,11 @@
         <v>1</v>
       </c>
       <c r="G66" s="12">
-        <v>5509.220792079208</v>
+        <v>7.9207920792079207</v>
       </c>
       <c r="H66" s="12">
         <f>G66*F66</f>
-        <v>5509.220792079208</v>
+        <v>7.9207920792079207</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2519,11 +2509,11 @@
         <v>1</v>
       </c>
       <c r="G67" s="12">
-        <v>4563.8698920792076</v>
+        <v>7601.1707920792078</v>
       </c>
       <c r="H67" s="12">
         <f>G67*F67</f>
-        <v>4563.8698920792076</v>
+        <v>7601.1707920792078</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -2546,11 +2536,11 @@
         <v>1</v>
       </c>
       <c r="G68" s="12">
-        <v>3737.6831920792079</v>
+        <v>5336.1507920792073</v>
       </c>
       <c r="H68" s="12">
         <f>G68*F68</f>
-        <v>3737.6831920792079</v>
+        <v>5336.1507920792073</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2559,7 +2549,7 @@
       </c>
       <c r="H69" s="14">
         <f>SUM(H58:H68)</f>
-        <v>47695.136509900993</v>
+        <v>57635.489009901001</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -2702,11 +2692,11 @@
         <v>40</v>
       </c>
       <c r="G76" s="12">
-        <v>25.800992079207919</v>
+        <v>25.80079207920792</v>
       </c>
       <c r="H76" s="12">
         <f>G76*F76</f>
-        <v>1032.0396831683167</v>
+        <v>1032.0316831683167</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -2715,7 +2705,7 @@
       </c>
       <c r="H77" s="14">
         <f>SUM(H72:H76)</f>
-        <v>1454.326811881188</v>
+        <v>1454.3188118811881</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -2781,11 +2771,11 @@
         <v>1</v>
       </c>
       <c r="G81" s="12">
-        <v>9769.9207920792069</v>
+        <v>16277.920792079207</v>
       </c>
       <c r="H81" s="12">
         <f>G81*F81</f>
-        <v>9769.9207920792069</v>
+        <v>16277.920792079207</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -2808,11 +2798,11 @@
         <v>1</v>
       </c>
       <c r="G82" s="12">
-        <v>4297.9207920792078</v>
+        <v>7157.9207920792078</v>
       </c>
       <c r="H82" s="12">
         <f>G82*F82</f>
-        <v>4297.9207920792078</v>
+        <v>7157.9207920792078</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2835,11 +2825,11 @@
         <v>1</v>
       </c>
       <c r="G83" s="12">
-        <v>6632.6300920792082</v>
+        <v>11049.100792079207</v>
       </c>
       <c r="H83" s="12">
         <f>G83*F83</f>
-        <v>6632.6300920792082</v>
+        <v>11049.100792079207</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -2862,11 +2852,11 @@
         <v>1</v>
       </c>
       <c r="G84" s="12">
-        <v>3789.1702920792077</v>
+        <v>6310.0007920792077</v>
       </c>
       <c r="H84" s="12">
         <f>G84*F84</f>
-        <v>3789.1702920792077</v>
+        <v>6310.0007920792077</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
@@ -2889,11 +2879,11 @@
         <v>1</v>
       </c>
       <c r="G85" s="12">
-        <v>3668.8627920792078</v>
+        <v>6109.4907920792075</v>
       </c>
       <c r="H85" s="12">
         <f>G85*F85</f>
-        <v>3668.8627920792078</v>
+        <v>6109.4907920792075</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2916,11 +2906,11 @@
         <v>1</v>
       </c>
       <c r="G86" s="12">
-        <v>1861.2085920792081</v>
+        <v>3096.7307920792077</v>
       </c>
       <c r="H86" s="12">
         <f>G86*F86</f>
-        <v>1861.2085920792081</v>
+        <v>3096.7307920792077</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2943,11 +2933,11 @@
         <v>1</v>
       </c>
       <c r="G87" s="12">
-        <v>1472.3395920792079</v>
+        <v>2448.6207920792076</v>
       </c>
       <c r="H87" s="12">
         <f>G87*F87</f>
-        <v>1472.3395920792079</v>
+        <v>2448.6207920792076</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2970,11 +2960,11 @@
         <v>1</v>
       </c>
       <c r="G88" s="12">
-        <v>3658.6416920792076</v>
+        <v>6092.4507920792075</v>
       </c>
       <c r="H88" s="12">
         <f>G88*F88</f>
-        <v>3658.6416920792076</v>
+        <v>6092.4507920792075</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -2997,11 +2987,11 @@
         <v>1</v>
       </c>
       <c r="G89" s="12">
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
       <c r="H89" s="12">
         <f>G89*F89</f>
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3018,11 +3008,11 @@
         <v>1</v>
       </c>
       <c r="G90" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H90" s="12">
         <f>G90*F90</f>
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3045,11 +3035,11 @@
         <v>1</v>
       </c>
       <c r="G91" s="12">
-        <v>2442.2981920792076</v>
+        <v>3485.6007920792076</v>
       </c>
       <c r="H91" s="12">
         <f>G91*F91</f>
-        <v>2442.2981920792076</v>
+        <v>3485.6007920792076</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3099,11 +3089,11 @@
         <v>10</v>
       </c>
       <c r="G93" s="12">
-        <v>25.800992079207919</v>
+        <v>25.80079207920792</v>
       </c>
       <c r="H93" s="12">
         <f>G93*F93</f>
-        <v>258.00992079207919</v>
+        <v>258.00792079207918</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3126,11 +3116,11 @@
         <v>1</v>
       </c>
       <c r="G94" s="12">
-        <v>548.34979207920787</v>
+        <v>908.64079207920793</v>
       </c>
       <c r="H94" s="12">
         <f>G94*F94</f>
-        <v>548.34979207920787</v>
+        <v>908.64079207920793</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3153,11 +3143,11 @@
         <v>1</v>
       </c>
       <c r="G95" s="12">
-        <v>455.8197920792079</v>
+        <v>754.4207920792079</v>
       </c>
       <c r="H95" s="12">
         <f>G95*F95</f>
-        <v>455.8197920792079</v>
+        <v>754.4207920792079</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3180,11 +3170,11 @@
         <v>1</v>
       </c>
       <c r="G96" s="12">
-        <v>859.79229207920787</v>
+        <v>1427.710792079208</v>
       </c>
       <c r="H96" s="12">
         <f>G96*F96</f>
-        <v>859.79229207920787</v>
+        <v>1427.710792079208</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3207,11 +3197,11 @@
         <v>2</v>
       </c>
       <c r="G97" s="12">
-        <v>606.1766920792079</v>
+        <v>1005.0107920792079</v>
       </c>
       <c r="H97" s="12">
         <f>G97*F97</f>
-        <v>1212.3533841584158</v>
+        <v>2010.0215841584159</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3234,11 +3224,11 @@
         <v>2</v>
       </c>
       <c r="G98" s="12">
-        <v>245.86349207920793</v>
+        <v>404.49079207920789</v>
       </c>
       <c r="H98" s="12">
         <f>G98*F98</f>
-        <v>491.72698415841586</v>
+        <v>808.98158415841579</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3257,11 +3247,11 @@
         <v>1</v>
       </c>
       <c r="G99" s="12">
-        <v>2826.8407920792079</v>
+        <v>4706.1207920792076</v>
       </c>
       <c r="H99" s="12">
         <f>G99*F99</f>
-        <v>2826.8407920792079</v>
+        <v>4706.1207920792076</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3280,11 +3270,11 @@
         <v>1</v>
       </c>
       <c r="G100" s="12">
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
       <c r="H100" s="12">
         <f>G100*F100</f>
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3303,11 +3293,11 @@
         <v>1</v>
       </c>
       <c r="G101" s="12">
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
       <c r="H101" s="12">
         <f>G101*F101</f>
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3326,11 +3316,11 @@
         <v>1</v>
       </c>
       <c r="G102" s="12">
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
       <c r="H102" s="12">
         <f>G102*F102</f>
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3349,11 +3339,11 @@
         <v>1</v>
       </c>
       <c r="G103" s="12">
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
       <c r="H103" s="12">
         <f>G103*F103</f>
-        <v>959.4583920792079</v>
+        <v>1593.8207920792081</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3376,11 +3366,11 @@
         <v>1</v>
       </c>
       <c r="G104" s="12">
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
       <c r="H104" s="12">
         <f>G104*F104</f>
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3403,11 +3393,11 @@
         <v>1</v>
       </c>
       <c r="G105" s="12">
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
       <c r="H105" s="12">
         <f>G105*F105</f>
-        <v>415.85299207920792</v>
+        <v>687.81079207920789</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3430,11 +3420,11 @@
         <v>1</v>
       </c>
       <c r="G106" s="12">
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
       <c r="H106" s="12">
         <f>G106*F106</f>
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3457,11 +3447,11 @@
         <v>1</v>
       </c>
       <c r="G107" s="12">
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
       <c r="H107" s="12">
         <f>G107*F107</f>
-        <v>388.6777920792079</v>
+        <v>642.52079207920792</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3478,11 +3468,11 @@
         <v>5</v>
       </c>
       <c r="G108" s="12">
-        <v>236.72079207920794</v>
+        <v>293.9207920792079</v>
       </c>
       <c r="H108" s="12">
         <f>G108*F108</f>
-        <v>1183.6039603960396</v>
+        <v>1469.6039603960394</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
@@ -3491,7 +3481,7 @@
       </c>
       <c r="H109" s="14">
         <f>SUM(H80:H108)</f>
-        <v>55314.529635643543</v>
+        <v>89606.41643564355</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3655,11 +3645,11 @@
         <v>1</v>
       </c>
       <c r="G119" s="12">
-        <v>2749.2275920792076</v>
+        <v>3924.0707920792079</v>
       </c>
       <c r="H119" s="12">
         <f>G119*F119</f>
-        <v>2749.2275920792076</v>
+        <v>3924.0707920792079</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3676,11 +3666,11 @@
         <v>1</v>
       </c>
       <c r="G120" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H120" s="12">
         <f>G120*F120</f>
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3703,11 +3693,11 @@
         <v>2</v>
       </c>
       <c r="G121" s="12">
-        <v>564.34069207920788</v>
+        <v>935.2907920792079</v>
       </c>
       <c r="H121" s="12">
         <f>G121*F121</f>
-        <v>1128.6813841584158</v>
+        <v>1870.5815841584158</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3724,11 +3714,11 @@
         <v>4</v>
       </c>
       <c r="G122" s="12">
-        <v>527.9207920792079</v>
+        <v>657.9207920792079</v>
       </c>
       <c r="H122" s="12">
         <f>G122*F122</f>
-        <v>2111.6831683168316</v>
+        <v>2631.6831683168316</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -3737,7 +3727,7 @@
       </c>
       <c r="H123" s="14">
         <f>SUM(H118:H122)</f>
-        <v>6111.9129366336629</v>
+        <v>8577.2563366336635</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -3803,11 +3793,11 @@
         <v>7</v>
       </c>
       <c r="G127" s="12">
-        <v>564.34069207920788</v>
+        <v>935.2907920792079</v>
       </c>
       <c r="H127" s="12">
         <f>G127*F127</f>
-        <v>3950.3848445544554</v>
+        <v>6547.0355445544556</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3851,11 +3841,11 @@
         <v>3</v>
       </c>
       <c r="G129" s="12">
-        <v>332.9207920792079</v>
+        <v>7.9207920792079207</v>
       </c>
       <c r="H129" s="12">
         <f>G129*F129</f>
-        <v>998.7623762376237</v>
+        <v>23.762376237623762</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -3953,11 +3943,11 @@
         <v>5</v>
       </c>
       <c r="G133" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H133" s="12">
         <f>G133*F133</f>
-        <v>611.60396039603961</v>
+        <v>754.60396039603961</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -3966,7 +3956,7 @@
       </c>
       <c r="H134" s="14">
         <f>SUM(H126:H133)</f>
-        <v>20152.473953465342</v>
+        <v>21917.124653465347</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -4032,11 +4022,11 @@
         <v>1</v>
       </c>
       <c r="G138" s="12">
-        <v>7690.0709920792078</v>
+        <v>12811.500792079207</v>
       </c>
       <c r="H138" s="12">
         <f>G138*F138</f>
-        <v>7690.0709920792078</v>
+        <v>12811.500792079207</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4059,11 +4049,11 @@
         <v>1</v>
       </c>
       <c r="G139" s="12">
-        <v>4267.7750920792078</v>
+        <v>7107.680792079208</v>
       </c>
       <c r="H139" s="12">
         <f>G139*F139</f>
-        <v>4267.7750920792078</v>
+        <v>7107.680792079208</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -4086,11 +4076,11 @@
         <v>1</v>
       </c>
       <c r="G140" s="12">
-        <v>5270.5807920792076</v>
+        <v>8779.0207920792072</v>
       </c>
       <c r="H140" s="12">
         <f>G140*F140</f>
-        <v>5270.5807920792076</v>
+        <v>8779.0207920792072</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -4113,11 +4103,11 @@
         <v>1</v>
       </c>
       <c r="G141" s="12">
-        <v>2993.1367920792077</v>
+        <v>4983.2807920792075</v>
       </c>
       <c r="H141" s="12">
         <f>G141*F141</f>
-        <v>2993.1367920792077</v>
+        <v>4983.2807920792075</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="72" x14ac:dyDescent="0.3">
@@ -4140,11 +4130,11 @@
         <v>1</v>
       </c>
       <c r="G142" s="12">
-        <v>1579.6207920792081</v>
+        <v>2627.4207920792078</v>
       </c>
       <c r="H142" s="12">
         <f>G142*F142</f>
-        <v>1579.6207920792081</v>
+        <v>2627.4207920792078</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4167,11 +4157,11 @@
         <v>1</v>
       </c>
       <c r="G143" s="12">
-        <v>2719.1079920792076</v>
+        <v>4526.5707920792074</v>
       </c>
       <c r="H143" s="12">
         <f>G143*F143</f>
-        <v>2719.1079920792076</v>
+        <v>4526.5707920792074</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
@@ -4194,11 +4184,11 @@
         <v>1</v>
       </c>
       <c r="G144" s="12">
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
       <c r="H144" s="12">
         <f>G144*F144</f>
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4215,11 +4205,11 @@
         <v>1</v>
       </c>
       <c r="G145" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H145" s="12">
         <f>G145*F145</f>
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4257,11 +4247,11 @@
         <v>2</v>
       </c>
       <c r="G147" s="12">
-        <v>236.72079207920794</v>
+        <v>293.9207920792079</v>
       </c>
       <c r="H147" s="12">
         <f>G147*F147</f>
-        <v>473.44158415841588</v>
+        <v>587.8415841584158</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -4270,7 +4260,7 @@
       </c>
       <c r="H148" s="14">
         <f>SUM(H137:H147)</f>
-        <v>31504.611462376237</v>
+        <v>49695.173762376238</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4390,11 +4380,11 @@
         <v>1</v>
       </c>
       <c r="G154" s="12">
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
       <c r="H154" s="12">
         <f>G154*F154</f>
-        <v>4050.1407920792076</v>
+        <v>5782.5207920792081</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -4438,11 +4428,11 @@
         <v>3</v>
       </c>
       <c r="G156" s="12">
-        <v>122.32079207920793</v>
+        <v>150.92079207920793</v>
       </c>
       <c r="H156" s="12">
         <f>G156*F156</f>
-        <v>366.9623762376238</v>
+        <v>452.76237623762381</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
@@ -4451,7 +4441,7 @@
       </c>
       <c r="H157" s="14">
         <f>SUM(H151:H156)</f>
-        <v>11853.672475247524</v>
+        <v>13671.852475247524</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -4520,7 +4510,7 @@
       </c>
       <c r="H163" s="14">
         <f>H161+H157+H148+H134+H123+H115+H109+H77+H69+H55+H48+H34</f>
-        <v>326182.85484653455</v>
+        <v>495122.72534653463</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -4626,7 +4616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37058C0D-5600-4F52-B568-BC61F013B979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1936F8-10A4-4BA2-B3EF-3C7B998728F3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
